--- a/Code/Optimiser/Stoc SolCheck.xlsx
+++ b/Code/Optimiser/Stoc SolCheck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Code\Optimiser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28FEC6D-9280-4050-B4F5-BB05B2DD9021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B601B48C-D3B3-493D-BDD8-A89CEDBB62C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C2CF203-BE44-4091-AD19-7EBDAA122E1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9C2CF203-BE44-4091-AD19-7EBDAA122E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +218,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -231,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -244,6 +256,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A32A4A6-99F3-4C76-86D2-7F74D01F6745}">
   <dimension ref="A1:CM53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,14 +745,14 @@
         <v>4</v>
       </c>
       <c r="N3" s="4">
-        <f t="shared" ref="N3:AL6" si="0">H3+$A$5</f>
+        <f t="shared" ref="N3:AF6" si="0">H3+$A$5</f>
         <v>8</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="12">
         <v>2</v>
       </c>
       <c r="Z3" s="4">
@@ -762,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H18" si="2">B4+$A$5</f>
+        <f t="shared" ref="H4:H6" si="2">B4+$A$5</f>
         <v>5</v>
       </c>
       <c r="N4" s="4">
@@ -805,9 +819,6 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="U5" s="4">
-        <v>1</v>
-      </c>
       <c r="Z5" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -837,8 +848,8 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="U6" s="4">
-        <v>1</v>
+      <c r="V6" s="12">
+        <v>2</v>
       </c>
       <c r="Z6" s="4">
         <f t="shared" si="0"/>
@@ -996,8 +1007,8 @@
         <f>AF3+A5</f>
         <v>24</v>
       </c>
-      <c r="C11" s="4">
-        <v>4</v>
+      <c r="D11" s="13">
+        <v>1</v>
       </c>
       <c r="H11" s="4">
         <f>B11+$A$5</f>
@@ -1011,12 +1022,12 @@
         <f>N11+$A$5</f>
         <v>36</v>
       </c>
+      <c r="V11" s="13">
+        <v>0</v>
+      </c>
       <c r="Z11" s="4">
         <f>T11+$A$5</f>
         <v>40</v>
-      </c>
-      <c r="AA11" s="4">
-        <v>3</v>
       </c>
       <c r="AF11" s="4">
         <f>Z11+$A$5</f>
@@ -1033,6 +1044,9 @@
         <f>B11+1</f>
         <v>25</v>
       </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
       <c r="H12" s="4">
         <f>B12+$A$5</f>
         <v>29</v>
@@ -1044,6 +1058,9 @@
       <c r="T12" s="4">
         <f>N12+$A$5</f>
         <v>37</v>
+      </c>
+      <c r="V12" s="13">
+        <v>0</v>
       </c>
       <c r="W12" s="11"/>
       <c r="Z12" s="4">
@@ -1064,7 +1081,7 @@
         <f t="shared" ref="B13:B14" si="3">B12+1</f>
         <v>26</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="13">
         <v>0</v>
       </c>
       <c r="H13" s="4">
@@ -1079,6 +1096,9 @@
         <f>N13+$A$5</f>
         <v>38</v>
       </c>
+      <c r="U13" s="13">
+        <v>1</v>
+      </c>
       <c r="Z13" s="4">
         <f>T13+$A$5</f>
         <v>42</v>
@@ -1097,7 +1117,7 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="13">
         <v>0</v>
       </c>
       <c r="H14" s="4">
@@ -1111,6 +1131,9 @@
       <c r="T14" s="4">
         <f>N14+$A$5</f>
         <v>39</v>
+      </c>
+      <c r="U14" s="13">
+        <v>1</v>
       </c>
       <c r="Z14" s="4">
         <f>T14+$A$5</f>
@@ -2056,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C642237E-D03A-45EC-B312-ECA8F260C28A}">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2078,7 +2101,7 @@
       </c>
       <c r="F1">
         <f>SUM(G21:G68) - SUM(G6:G17)</f>
-        <v>148.23675408900817</v>
+        <v>15376.836816908315</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2125,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <f>POWER($B$3, A6)</f>
+        <f t="shared" ref="B6:B17" si="0">POWER($B$3, A6)</f>
         <v>1</v>
       </c>
       <c r="C6">
@@ -2135,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <f>C6*$B$2+D6*$C$2</f>
+        <f t="shared" ref="E6:E17" si="1">C6*$B$2+D6*$C$2</f>
         <v>0</v>
       </c>
       <c r="G6">
@@ -2148,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <f>POWER($B$3, A7)</f>
+        <f t="shared" si="0"/>
         <v>0.99916280000000002</v>
       </c>
       <c r="C7">
@@ -2158,11 +2181,11 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <f>C7*$B$2+D7*$C$2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G17" si="0">B7*E7</f>
+        <f t="shared" ref="G7:G17" si="2">B7*E7</f>
         <v>0</v>
       </c>
     </row>
@@ -2171,7 +2194,7 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <f>POWER($B$3, A8)</f>
+        <f t="shared" si="0"/>
         <v>0.99832630090384</v>
       </c>
       <c r="C8">
@@ -2181,11 +2204,11 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <f>C8*$B$2+D8*$C$2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2194,22 +2217,22 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <f>POWER($B$3, A9)</f>
+        <f t="shared" si="0"/>
         <v>0.99749050212472334</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <f>C9*$B$2+D9*$C$2</f>
-        <v>5500</v>
+        <f t="shared" si="1"/>
+        <v>3500</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>5486.1977616859785</v>
+        <f t="shared" si="2"/>
+        <v>3491.2167574365317</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2217,7 +2240,7 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <f>POWER($B$3, A10)</f>
+        <f t="shared" si="0"/>
         <v>0.99665540307634448</v>
       </c>
       <c r="C10">
@@ -2227,11 +2250,11 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <f>C10*$B$2+D10*$C$2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2240,7 +2263,7 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <f>POWER($B$3, A11)</f>
+        <f t="shared" si="0"/>
         <v>0.99582100317288902</v>
       </c>
       <c r="C11">
@@ -2250,11 +2273,11 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <f>C11*$B$2+D11*$C$2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2263,7 +2286,7 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <f>POWER($B$3, A12)</f>
+        <f t="shared" si="0"/>
         <v>0.99498730182903261</v>
       </c>
       <c r="C12">
@@ -2273,11 +2296,11 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f>C12*$B$2+D12*$C$2</f>
+        <f t="shared" si="1"/>
         <v>5500</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5472.4301600596791</v>
       </c>
     </row>
@@ -2286,7 +2309,7 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <f>POWER($B$3, A13)</f>
+        <f t="shared" si="0"/>
         <v>0.99415429845994141</v>
       </c>
       <c r="C13">
@@ -2296,11 +2319,11 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <f>C13*$B$2+D13*$C$2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2309,7 +2332,7 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <f>POWER($B$3, A14)</f>
+        <f t="shared" si="0"/>
         <v>0.99332199248127073</v>
       </c>
       <c r="C14">
@@ -2319,11 +2342,11 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <f>C14*$B$2+D14*$C$2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2332,22 +2355,22 @@
         <v>9</v>
       </c>
       <c r="B15">
-        <f>POWER($B$3, A15)</f>
+        <f t="shared" si="0"/>
         <v>0.99249038330916539</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <f>C15*$B$2+D15*$C$2</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5500</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5458.6971082004093</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2355,22 +2378,22 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <f>POWER($B$3, A16)</f>
+        <f t="shared" si="0"/>
         <v>0.99165947036025903</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <f>C16*$B$2+D16*$C$2</f>
-        <v>3500</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>3470.8081462609066</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2378,7 +2401,7 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <f>POWER($B$3, A17)</f>
+        <f t="shared" si="0"/>
         <v>0.99082925305167346</v>
       </c>
       <c r="C17">
@@ -2388,11 +2411,11 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <f>C17*$B$2+D17*$C$2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2452,11 +2475,11 @@
         <v>480</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21">
         <f>E21*D21*B21</f>
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="I21">
         <v>400</v>
@@ -2470,7 +2493,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" ref="A22:A68" si="1">_xlfn.FLOOR.MATH(C22/$B$1)</f>
+        <f t="shared" ref="A22:A68" si="3">_xlfn.FLOOR.MATH(C22/$B$1)</f>
         <v>0</v>
       </c>
       <c r="B22">
@@ -2481,15 +2504,15 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:D68" si="2">AVERAGE(I22:K22)</f>
+        <f t="shared" ref="D22:D68" si="4">AVERAGE(I22:K22)</f>
         <v>480</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G22:G68" si="3">E22*D22*B22</f>
-        <v>480</v>
+        <f t="shared" ref="G22:G68" si="5">E22*D22*B22</f>
+        <v>960</v>
       </c>
       <c r="I22">
         <v>400</v>
@@ -2503,26 +2526,26 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:B68" si="4">B22</f>
+        <f t="shared" ref="B23:B24" si="6">B22</f>
         <v>1</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
-        <v>480</v>
+        <f t="shared" si="5"/>
+        <v>960</v>
       </c>
       <c r="I23">
         <v>400</v>
@@ -2536,26 +2559,26 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
-        <v>480</v>
+        <f t="shared" si="5"/>
+        <v>960</v>
       </c>
       <c r="I24">
         <v>400</v>
@@ -2569,7 +2592,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B25">
@@ -2580,15 +2603,15 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
-        <v>479.59814399999999</v>
+        <f t="shared" si="5"/>
+        <v>959.19628799999998</v>
       </c>
       <c r="I25">
         <v>400</v>
@@ -2602,26 +2625,26 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26:B68" si="5">B22*$B$3</f>
+        <f t="shared" ref="B26:B68" si="7">B22*$B$3</f>
         <v>0.99916280000000002</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
       <c r="D26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
-        <v>479.59814399999999</v>
+        <f t="shared" si="5"/>
+        <v>959.19628799999998</v>
       </c>
       <c r="I26">
         <v>400</v>
@@ -2635,26 +2658,26 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99916280000000002</v>
       </c>
       <c r="C27">
         <v>6</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <f t="shared" si="3"/>
-        <v>479.59814399999999</v>
+        <f t="shared" si="5"/>
+        <v>959.19628799999998</v>
       </c>
       <c r="I27">
         <v>400</v>
@@ -2668,26 +2691,26 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99916280000000002</v>
       </c>
       <c r="C28">
         <v>7</v>
       </c>
       <c r="D28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
-        <v>479.59814399999999</v>
+        <f t="shared" si="5"/>
+        <v>959.19628799999998</v>
       </c>
       <c r="I28">
         <v>400</v>
@@ -2701,26 +2724,26 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99832630090384</v>
       </c>
       <c r="C29">
         <v>8</v>
       </c>
       <c r="D29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <f t="shared" si="3"/>
-        <v>479.19662443384323</v>
+        <f t="shared" si="5"/>
+        <v>958.39324886768645</v>
       </c>
       <c r="I29">
         <v>400</v>
@@ -2734,26 +2757,26 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99832630090384</v>
       </c>
       <c r="C30">
         <v>9</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
-        <v>479.19662443384323</v>
+        <f t="shared" si="5"/>
+        <v>958.39324886768645</v>
       </c>
       <c r="I30">
         <v>400</v>
@@ -2767,26 +2790,26 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99832630090384</v>
       </c>
       <c r="C31">
         <v>10</v>
       </c>
       <c r="D31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <f t="shared" si="3"/>
-        <v>479.19662443384323</v>
+        <f t="shared" si="5"/>
+        <v>958.39324886768645</v>
       </c>
       <c r="I31">
         <v>400</v>
@@ -2800,26 +2823,26 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99832630090384</v>
       </c>
       <c r="C32">
         <v>11</v>
       </c>
       <c r="D32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32">
-        <f t="shared" si="3"/>
-        <v>479.19662443384323</v>
+        <f t="shared" si="5"/>
+        <v>958.39324886768645</v>
       </c>
       <c r="I32">
         <v>400</v>
@@ -2833,26 +2856,26 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99749050212472334</v>
       </c>
       <c r="C33">
         <v>12</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>478.79544101986721</v>
       </c>
       <c r="I33">
         <v>400</v>
@@ -2866,26 +2889,26 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99749050212472334</v>
       </c>
       <c r="C34">
         <v>13</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <f t="shared" si="3"/>
-        <v>478.79544101986721</v>
+        <f t="shared" si="5"/>
+        <v>957.59088203973442</v>
       </c>
       <c r="I34">
         <v>400</v>
@@ -2899,26 +2922,26 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99749050212472334</v>
       </c>
       <c r="C35">
         <v>14</v>
       </c>
       <c r="D35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>957.59088203973442</v>
       </c>
       <c r="I35">
         <v>400</v>
@@ -2932,26 +2955,26 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99749050212472334</v>
       </c>
       <c r="C36">
         <v>15</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>266.66666666666669</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>265.99746723325956</v>
       </c>
       <c r="I36">
         <v>400</v>
@@ -2965,26 +2988,26 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99665540307634459</v>
       </c>
       <c r="C37">
         <v>16</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>266.66666666666669</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37">
-        <f t="shared" si="3"/>
-        <v>265.77477415369191</v>
+        <f t="shared" si="5"/>
+        <v>531.54954830738382</v>
       </c>
       <c r="I37">
         <v>400</v>
@@ -2998,26 +3021,26 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99665540307634459</v>
       </c>
       <c r="C38">
         <v>17</v>
       </c>
       <c r="D38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>266.66666666666669</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <f t="shared" si="3"/>
-        <v>265.77477415369191</v>
+        <f t="shared" si="5"/>
+        <v>531.54954830738382</v>
       </c>
       <c r="I38">
         <v>400</v>
@@ -3031,26 +3054,26 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99665540307634459</v>
       </c>
       <c r="C39">
         <v>18</v>
       </c>
       <c r="D39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>266.66666666666669</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39">
-        <f t="shared" si="3"/>
-        <v>265.77477415369191</v>
+        <f t="shared" si="5"/>
+        <v>531.54954830738382</v>
       </c>
       <c r="I39">
         <v>400</v>
@@ -3064,26 +3087,26 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99665540307634459</v>
       </c>
       <c r="C40">
         <v>19</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>266.66666666666669</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40">
-        <f t="shared" si="3"/>
-        <v>265.77477415369191</v>
+        <f t="shared" si="5"/>
+        <v>531.54954830738382</v>
       </c>
       <c r="I40">
         <v>400</v>
@@ -3097,25 +3120,25 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99582100317288913</v>
       </c>
       <c r="C41">
         <v>20</v>
       </c>
       <c r="D41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>266.66666666666669</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="G41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>265.55226751277047</v>
       </c>
       <c r="I41">
@@ -3130,25 +3153,25 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99582100317288913</v>
       </c>
       <c r="C42">
         <v>21</v>
       </c>
       <c r="D42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>266.66666666666669</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="G42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>265.55226751277047</v>
       </c>
       <c r="I42">
@@ -3163,26 +3186,26 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99582100317288913</v>
       </c>
       <c r="C43">
         <v>22</v>
       </c>
       <c r="D43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>266.66666666666669</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>265.55226751277047</v>
       </c>
       <c r="I43">
         <v>400</v>
@@ -3196,25 +3219,25 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99582100317288913</v>
       </c>
       <c r="C44">
         <v>23</v>
       </c>
       <c r="D44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>266.66666666666669</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="G44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I44">
@@ -3229,25 +3252,25 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99498730182903283</v>
       </c>
       <c r="C45">
         <v>24</v>
       </c>
       <c r="D45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>266.66666666666669</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="G45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I45">
@@ -3262,26 +3285,26 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99498730182903283</v>
       </c>
       <c r="C46">
         <v>25</v>
       </c>
       <c r="D46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>266.66666666666669</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <f t="shared" si="3"/>
-        <v>265.32994715440879</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>400</v>
@@ -3295,26 +3318,26 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99498730182903283</v>
       </c>
       <c r="C47">
         <v>26</v>
       </c>
       <c r="D47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>266.66666666666669</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>265.32994715440879</v>
       </c>
       <c r="I47">
         <v>400</v>
@@ -3328,26 +3351,26 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99498730182903283</v>
       </c>
       <c r="C48">
         <v>27</v>
       </c>
       <c r="D48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>266.66666666666669</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>265.32994715440879</v>
       </c>
       <c r="I48">
         <v>400</v>
@@ -3361,26 +3384,26 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99415429845994163</v>
       </c>
       <c r="C49">
         <v>28</v>
       </c>
       <c r="D49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>266.66666666666669</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <f t="shared" si="3"/>
-        <v>265.10781292265114</v>
+        <f t="shared" si="5"/>
+        <v>530.21562584530227</v>
       </c>
       <c r="I49">
         <v>400</v>
@@ -3394,26 +3417,26 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99415429845994163</v>
       </c>
       <c r="C50">
         <v>29</v>
       </c>
       <c r="D50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>266.66666666666669</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50">
-        <f t="shared" si="3"/>
-        <v>265.10781292265114</v>
+        <f t="shared" si="5"/>
+        <v>530.21562584530227</v>
       </c>
       <c r="I50">
         <v>400</v>
@@ -3427,26 +3450,26 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99415429845994163</v>
       </c>
       <c r="C51">
         <v>30</v>
       </c>
       <c r="D51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51">
-        <f t="shared" si="3"/>
-        <v>397.66171938397667</v>
+        <f t="shared" si="5"/>
+        <v>795.32343876795335</v>
       </c>
       <c r="I51">
         <v>400</v>
@@ -3460,26 +3483,26 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99415429845994163</v>
       </c>
       <c r="C52">
         <v>31</v>
       </c>
       <c r="D52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52">
-        <f t="shared" si="3"/>
-        <v>397.66171938397667</v>
+        <f t="shared" si="5"/>
+        <v>795.32343876795335</v>
       </c>
       <c r="I52">
         <v>400</v>
@@ -3493,26 +3516,26 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99332199248127095</v>
       </c>
       <c r="C53">
         <v>32</v>
       </c>
       <c r="D53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53">
-        <f t="shared" si="3"/>
-        <v>397.32879699250839</v>
+        <f t="shared" si="5"/>
+        <v>794.65759398501677</v>
       </c>
       <c r="I53">
         <v>400</v>
@@ -3526,26 +3549,26 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99332199248127095</v>
       </c>
       <c r="C54">
         <v>33</v>
       </c>
       <c r="D54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54">
-        <f t="shared" si="3"/>
-        <v>397.32879699250839</v>
+        <f t="shared" si="5"/>
+        <v>794.65759398501677</v>
       </c>
       <c r="I54">
         <v>400</v>
@@ -3559,26 +3582,26 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99332199248127095</v>
       </c>
       <c r="C55">
         <v>34</v>
       </c>
       <c r="D55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55">
-        <f t="shared" si="3"/>
-        <v>397.32879699250839</v>
+        <f t="shared" si="5"/>
+        <v>794.65759398501677</v>
       </c>
       <c r="I55">
         <v>400</v>
@@ -3592,25 +3615,25 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99332199248127095</v>
       </c>
       <c r="C56">
         <v>35</v>
       </c>
       <c r="D56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="G56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>397.32879699250839</v>
       </c>
       <c r="I56">
@@ -3625,25 +3648,25 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99249038330916561</v>
       </c>
       <c r="C57">
         <v>36</v>
       </c>
       <c r="D57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="G57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>396.99615332366625</v>
       </c>
       <c r="I57">
@@ -3658,25 +3681,25 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99249038330916561</v>
       </c>
       <c r="C58">
         <v>37</v>
       </c>
       <c r="D58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="G58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>396.99615332366625</v>
       </c>
       <c r="I58">
@@ -3691,26 +3714,26 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99249038330916561</v>
       </c>
       <c r="C59">
         <v>38</v>
       </c>
       <c r="D59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>396.99615332366625</v>
       </c>
       <c r="I59">
         <v>400</v>
@@ -3724,26 +3747,26 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99249038330916561</v>
       </c>
       <c r="C60">
         <v>39</v>
       </c>
       <c r="D60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>396.99615332366625</v>
       </c>
       <c r="I60">
         <v>400</v>
@@ -3757,26 +3780,26 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99165947036025914</v>
       </c>
       <c r="C61">
         <v>40</v>
       </c>
       <c r="D61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G61">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>793.3275762882073</v>
       </c>
       <c r="I61">
         <v>400</v>
@@ -3790,26 +3813,26 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99165947036025914</v>
       </c>
       <c r="C62">
         <v>41</v>
       </c>
       <c r="D62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62">
-        <f t="shared" si="3"/>
-        <v>396.66378814410365</v>
+        <f t="shared" si="5"/>
+        <v>793.3275762882073</v>
       </c>
       <c r="I62">
         <v>400</v>
@@ -3823,26 +3846,26 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99165947036025914</v>
       </c>
       <c r="C63">
         <v>42</v>
       </c>
       <c r="D63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63">
-        <f t="shared" si="3"/>
-        <v>396.66378814410365</v>
+        <f t="shared" si="5"/>
+        <v>793.3275762882073</v>
       </c>
       <c r="I63">
         <v>400</v>
@@ -3856,26 +3879,26 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99165947036025914</v>
       </c>
       <c r="C64">
         <v>43</v>
       </c>
       <c r="D64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64">
-        <f t="shared" si="3"/>
-        <v>396.66378814410365</v>
+        <f t="shared" si="5"/>
+        <v>793.3275762882073</v>
       </c>
       <c r="I64">
         <v>400</v>
@@ -3889,26 +3912,26 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99082925305167358</v>
       </c>
       <c r="C65">
         <v>44</v>
       </c>
       <c r="D65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65">
-        <f t="shared" si="3"/>
-        <v>396.3317012206694</v>
+        <f t="shared" si="5"/>
+        <v>792.6634024413388</v>
       </c>
       <c r="I65">
         <v>400</v>
@@ -3922,26 +3945,26 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99082925305167358</v>
       </c>
       <c r="C66">
         <v>45</v>
       </c>
       <c r="D66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66">
-        <f t="shared" si="3"/>
-        <v>396.3317012206694</v>
+        <f t="shared" si="5"/>
+        <v>792.6634024413388</v>
       </c>
       <c r="I66">
         <v>400</v>
@@ -3955,25 +3978,25 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99082925305167358</v>
       </c>
       <c r="C67">
         <v>46</v>
       </c>
       <c r="D67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="G67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>396.3317012206694</v>
       </c>
       <c r="I67">
@@ -3988,26 +4011,26 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99082925305167358</v>
       </c>
       <c r="C68">
         <v>47</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <f t="shared" si="3"/>
-        <v>396.3317012206694</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>400</v>

--- a/Code/Optimiser/Stoc SolCheck.xlsx
+++ b/Code/Optimiser/Stoc SolCheck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Code\Optimiser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B601B48C-D3B3-493D-BDD8-A89CEDBB62C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBDAB80-804B-4746-B52C-E25D002B830E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9C2CF203-BE44-4091-AD19-7EBDAA122E1B}"/>
   </bookViews>
@@ -193,7 +193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,13 +220,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -258,6 +264,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,7 +588,7 @@
   <dimension ref="A1:CM53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3"/>
+      <selection activeCell="AB34" sqref="AB34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,30 +749,27 @@
       </c>
       <c r="H3" s="4">
         <f>B3+$A$5</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" ref="N3:AF6" si="0">H3+$A$5</f>
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="U3" s="12">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="AF3" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="CH3" s="4">
         <f t="shared" ref="CH3:CH26" si="1">AL30+$A$5</f>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:91" x14ac:dyDescent="0.25">
@@ -776,60 +780,60 @@
         <v>1</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H6" si="2">B4+$A$5</f>
-        <v>5</v>
+        <f t="shared" ref="H4:H17" si="2">B4+$A$5</f>
+        <v>16</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="AF4" s="4">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="CH4" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="CH5" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:91" x14ac:dyDescent="0.25">
@@ -838,393 +842,969 @@
       </c>
       <c r="H6" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="T6" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="V6" s="12">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="U6" s="12">
+        <v>0</v>
       </c>
       <c r="Z6" s="4">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="AF6" s="4">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="CH6" s="4">
         <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="H7" s="4">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" ref="N7:N17" si="3">H7+$A$5</f>
+        <v>34</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" ref="T7:T17" si="4">N7+$A$5</f>
+        <v>49</v>
+      </c>
+      <c r="U7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4">
+        <f t="shared" ref="Z7:Z17" si="5">T7+$A$5</f>
+        <v>64</v>
+      </c>
+      <c r="AF7" s="4">
+        <f t="shared" ref="AF7:AF17" si="6">Z7+$A$5</f>
+        <v>79</v>
+      </c>
+      <c r="AI7" s="14"/>
       <c r="CH7" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="T8" s="4">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="Z8" s="4">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="AF8" s="4">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="AI8" s="14"/>
       <c r="CH8" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:91" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
-        <f>AF1+1</f>
         <v>6</v>
       </c>
       <c r="H9" s="4">
-        <f>B9+1</f>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="N9" s="4">
-        <f>H9+1</f>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
       <c r="T9" s="4">
-        <f>N9+1</f>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>51</v>
       </c>
       <c r="Z9" s="4">
-        <f>T9+1</f>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>66</v>
       </c>
       <c r="AF9" s="4">
-        <f>Z9+1</f>
-        <v>11</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="AI9" s="14"/>
       <c r="CH9" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4">
-        <v>3</v>
-      </c>
-      <c r="G10" s="4">
-        <v>4</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4">
-        <v>2</v>
-      </c>
-      <c r="L10" s="4">
-        <v>3</v>
-      </c>
-      <c r="M10" s="4">
-        <v>4</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>2</v>
-      </c>
-      <c r="R10" s="4">
-        <v>3</v>
-      </c>
-      <c r="S10" s="4">
-        <v>4</v>
-      </c>
-      <c r="U10" s="4">
-        <v>0</v>
-      </c>
-      <c r="V10" s="4">
-        <v>1</v>
-      </c>
-      <c r="W10" s="4">
-        <v>2</v>
-      </c>
-      <c r="X10" s="4">
-        <v>3</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>4</v>
-      </c>
-      <c r="AA10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD10" s="4">
-        <v>3</v>
-      </c>
-      <c r="AE10" s="4">
-        <v>4</v>
-      </c>
-      <c r="AG10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="4">
-        <v>2</v>
-      </c>
-      <c r="AJ10" s="4">
-        <v>3</v>
-      </c>
-      <c r="AK10" s="4">
-        <v>4</v>
-      </c>
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="Z10" s="4">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="AF10" s="4">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="AI10" s="14"/>
       <c r="CH10" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:91" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
-        <f>AF3+A5</f>
-        <v>24</v>
-      </c>
-      <c r="D11" s="13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H11" s="4">
-        <f>B11+$A$5</f>
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="N11" s="4">
-        <f>H11+$A$5</f>
-        <v>32</v>
+        <f t="shared" si="3"/>
+        <v>38</v>
       </c>
       <c r="T11" s="4">
-        <f>N11+$A$5</f>
-        <v>36</v>
-      </c>
-      <c r="V11" s="13">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>53</v>
       </c>
       <c r="Z11" s="4">
-        <f>T11+$A$5</f>
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>68</v>
       </c>
       <c r="AF11" s="4">
-        <f>Z11+$A$5</f>
-        <v>44</v>
-      </c>
-      <c r="AH11" s="11"/>
+        <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="AI11" s="14"/>
       <c r="CH11" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:91" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
-        <f>B11+1</f>
-        <v>25</v>
-      </c>
-      <c r="D12" s="13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H12" s="4">
-        <f>B12+$A$5</f>
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="N12" s="4">
-        <f>H12+$A$5</f>
-        <v>33</v>
+        <f t="shared" si="3"/>
+        <v>39</v>
       </c>
       <c r="T12" s="4">
-        <f>N12+$A$5</f>
-        <v>37</v>
-      </c>
-      <c r="V12" s="13">
-        <v>0</v>
-      </c>
-      <c r="W12" s="11"/>
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
       <c r="Z12" s="4">
-        <f>T12+$A$5</f>
-        <v>41</v>
+        <f t="shared" si="5"/>
+        <v>69</v>
       </c>
       <c r="AF12" s="4">
-        <f>Z12+$A$5</f>
-        <v>45</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="AI12" s="14"/>
       <c r="CH12" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:91" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
-        <f t="shared" ref="B13:B14" si="3">B12+1</f>
-        <v>26</v>
-      </c>
-      <c r="C13" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" ref="H13:H14" si="4">B13+$A$5</f>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="N13" s="4">
-        <f>H13+$A$5</f>
-        <v>34</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="T13" s="4">
-        <f>N13+$A$5</f>
-        <v>38</v>
-      </c>
-      <c r="U13" s="13">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>55</v>
       </c>
       <c r="Z13" s="4">
-        <f>T13+$A$5</f>
-        <v>42</v>
+        <f t="shared" si="5"/>
+        <v>70</v>
       </c>
       <c r="AF13" s="4">
-        <f>Z13+$A$5</f>
-        <v>46</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="AI13" s="14"/>
       <c r="CH13" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:91" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
+        <v>11</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="N14" s="4">
         <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="C14" s="13">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
+        <v>41</v>
+      </c>
+      <c r="T14" s="4">
         <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="N14" s="4">
-        <f>H14+$A$5</f>
-        <v>35</v>
-      </c>
-      <c r="T14" s="4">
-        <f>N14+$A$5</f>
-        <v>39</v>
-      </c>
-      <c r="U14" s="13">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="Z14" s="4">
-        <f>T14+$A$5</f>
-        <v>43</v>
+        <f t="shared" si="5"/>
+        <v>71</v>
       </c>
       <c r="AF14" s="4">
-        <f>Z14+$A$5</f>
-        <v>47</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="AI14" s="14"/>
       <c r="CH14" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>12</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="Z15" s="4">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="AF15" s="4">
+        <f t="shared" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="AI15" s="14"/>
       <c r="CH15" s="4">
         <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>13</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="V16" s="12">
+        <v>0</v>
+      </c>
+      <c r="X16" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="Z16" s="4">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="AF16" s="4">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="AI16" s="14"/>
       <c r="CH16" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
+      <c r="B17" s="4">
+        <v>14</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="V17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="4">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="AF17" s="4">
+        <f t="shared" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="AI17" s="14"/>
       <c r="CH17" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="CH18" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:86" x14ac:dyDescent="0.25">
       <c r="CH19" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
+      <c r="B20" s="4">
+        <f>AF1+1</f>
+        <v>6</v>
+      </c>
+      <c r="H20" s="4">
+        <f>B20+1</f>
+        <v>7</v>
+      </c>
+      <c r="N20" s="4">
+        <f>H20+1</f>
+        <v>8</v>
+      </c>
+      <c r="T20" s="4">
+        <f>N20+1</f>
+        <v>9</v>
+      </c>
+      <c r="Z20" s="4">
+        <f>T20+1</f>
+        <v>10</v>
+      </c>
+      <c r="AF20" s="4">
+        <f>Z20+1</f>
+        <v>11</v>
+      </c>
       <c r="CH20" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3</v>
+      </c>
+      <c r="G21" s="4">
+        <v>4</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <v>2</v>
+      </c>
+      <c r="L21" s="4">
+        <v>3</v>
+      </c>
+      <c r="M21" s="4">
+        <v>4</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>2</v>
+      </c>
+      <c r="R21" s="4">
+        <v>3</v>
+      </c>
+      <c r="S21" s="4">
+        <v>4</v>
+      </c>
+      <c r="U21" s="4">
+        <v>0</v>
+      </c>
+      <c r="V21" s="4">
+        <v>1</v>
+      </c>
+      <c r="W21" s="4">
+        <v>2</v>
+      </c>
+      <c r="X21" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>3</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>4</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ21" s="4">
+        <v>3</v>
+      </c>
+      <c r="AK21" s="4">
+        <v>4</v>
+      </c>
       <c r="CH21" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <f>AF3+A5</f>
+        <v>90</v>
+      </c>
+      <c r="H22" s="4">
+        <f>B22+$A$5</f>
+        <v>105</v>
+      </c>
+      <c r="N22" s="4">
+        <f>H22+$A$5</f>
+        <v>120</v>
+      </c>
+      <c r="O22" s="13">
+        <v>2</v>
+      </c>
+      <c r="T22" s="4">
+        <f>N22+$A$5</f>
+        <v>135</v>
+      </c>
+      <c r="Z22" s="4">
+        <f>T22+$A$5</f>
+        <v>150</v>
+      </c>
+      <c r="AA22" s="13">
+        <v>3</v>
+      </c>
+      <c r="AF22" s="4">
+        <f>Z22+$A$5</f>
+        <v>165</v>
+      </c>
+      <c r="AH22" s="11"/>
       <c r="CH22" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
+      <c r="B23" s="4">
+        <f>B22+1</f>
+        <v>91</v>
+      </c>
+      <c r="H23" s="4">
+        <f>B23+$A$5</f>
+        <v>106</v>
+      </c>
+      <c r="N23" s="4">
+        <f>H23+$A$5</f>
+        <v>121</v>
+      </c>
+      <c r="T23" s="4">
+        <f>N23+$A$5</f>
+        <v>136</v>
+      </c>
+      <c r="W23" s="11"/>
+      <c r="Z23" s="4">
+        <f>T23+$A$5</f>
+        <v>151</v>
+      </c>
+      <c r="AF23" s="4">
+        <f>Z23+$A$5</f>
+        <v>166</v>
+      </c>
       <c r="CH23" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
+      <c r="B24" s="4">
+        <f t="shared" ref="B24:B38" si="7">B23+1</f>
+        <v>92</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" ref="H24:H27" si="8">B24+$A$5</f>
+        <v>107</v>
+      </c>
+      <c r="N24" s="4">
+        <f>H24+$A$5</f>
+        <v>122</v>
+      </c>
+      <c r="T24" s="4">
+        <f>N24+$A$5</f>
+        <v>137</v>
+      </c>
+      <c r="Z24" s="4">
+        <f>T24+$A$5</f>
+        <v>152</v>
+      </c>
+      <c r="AF24" s="4">
+        <f>Z24+$A$5</f>
+        <v>167</v>
+      </c>
       <c r="CH24" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <f t="shared" si="7"/>
+        <v>93</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="8"/>
+        <v>108</v>
+      </c>
+      <c r="N25" s="4">
+        <f>H25+$A$5</f>
+        <v>123</v>
+      </c>
+      <c r="T25" s="4">
+        <f>N25+$A$5</f>
+        <v>138</v>
+      </c>
+      <c r="X25" s="14"/>
+      <c r="Z25" s="4">
+        <f>T25+$A$5</f>
+        <v>153</v>
+      </c>
+      <c r="AF25" s="4">
+        <f>Z25+$A$5</f>
+        <v>168</v>
+      </c>
       <c r="CH25" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
+      <c r="B26" s="4">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="8"/>
+        <v>109</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" ref="N26:N38" si="9">H26+$A$5</f>
+        <v>124</v>
+      </c>
+      <c r="T26" s="4">
+        <f t="shared" ref="T26:T38" si="10">N26+$A$5</f>
+        <v>139</v>
+      </c>
+      <c r="X26" s="14"/>
+      <c r="Z26" s="4">
+        <f t="shared" ref="Z26:Z38" si="11">T26+$A$5</f>
+        <v>154</v>
+      </c>
+      <c r="AF26" s="4">
+        <f t="shared" ref="AF26:AF38" si="12">Z26+$A$5</f>
+        <v>169</v>
+      </c>
       <c r="CH26" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <f t="shared" si="7"/>
+        <v>95</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="8"/>
+        <v>110</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" si="9"/>
+        <v>125</v>
+      </c>
+      <c r="T27" s="4">
+        <f t="shared" si="10"/>
+        <v>140</v>
+      </c>
+      <c r="X27" s="14"/>
+      <c r="Z27" s="4">
+        <f t="shared" si="11"/>
+        <v>155</v>
+      </c>
+      <c r="AF27" s="4">
+        <f t="shared" si="12"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="D28" s="12">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" ref="H28:H38" si="13">B28+$A$5</f>
+        <v>111</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="9"/>
+        <v>126</v>
+      </c>
+      <c r="T28" s="4">
+        <f t="shared" si="10"/>
+        <v>141</v>
+      </c>
+      <c r="X28" s="14"/>
+      <c r="Z28" s="4">
+        <f t="shared" si="11"/>
+        <v>156</v>
+      </c>
+      <c r="AF28" s="4">
+        <f t="shared" si="12"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="B29" s="4">
+        <f t="shared" si="7"/>
+        <v>97</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="13"/>
+        <v>112</v>
+      </c>
+      <c r="N29" s="4">
+        <f t="shared" si="9"/>
+        <v>127</v>
+      </c>
+      <c r="T29" s="4">
+        <f t="shared" si="10"/>
+        <v>142</v>
+      </c>
+      <c r="X29" s="14"/>
+      <c r="Z29" s="4">
+        <f t="shared" si="11"/>
+        <v>157</v>
+      </c>
+      <c r="AF29" s="4">
+        <f t="shared" si="12"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <f t="shared" si="7"/>
+        <v>98</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="13"/>
+        <v>113</v>
+      </c>
+      <c r="N30" s="4">
+        <f t="shared" si="9"/>
+        <v>128</v>
+      </c>
+      <c r="T30" s="4">
+        <f t="shared" si="10"/>
+        <v>143</v>
+      </c>
+      <c r="X30" s="14"/>
+      <c r="Z30" s="4">
+        <f t="shared" si="11"/>
+        <v>158</v>
+      </c>
+      <c r="AF30" s="4">
+        <f t="shared" si="12"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="13"/>
+        <v>114</v>
+      </c>
+      <c r="N31" s="4">
+        <f t="shared" si="9"/>
+        <v>129</v>
+      </c>
+      <c r="T31" s="4">
+        <f t="shared" si="10"/>
+        <v>144</v>
+      </c>
+      <c r="X31" s="14"/>
+      <c r="Z31" s="4">
+        <f t="shared" si="11"/>
+        <v>159</v>
+      </c>
+      <c r="AF31" s="4">
+        <f t="shared" si="12"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="13"/>
+        <v>115</v>
+      </c>
+      <c r="N32" s="4">
+        <f t="shared" si="9"/>
+        <v>130</v>
+      </c>
+      <c r="T32" s="4">
+        <f t="shared" si="10"/>
+        <v>145</v>
+      </c>
+      <c r="X32" s="14"/>
+      <c r="Z32" s="4">
+        <f t="shared" si="11"/>
+        <v>160</v>
+      </c>
+      <c r="AF32" s="4">
+        <f t="shared" si="12"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <f t="shared" si="7"/>
+        <v>101</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="13"/>
+        <v>116</v>
+      </c>
+      <c r="N33" s="4">
+        <f t="shared" si="9"/>
+        <v>131</v>
+      </c>
+      <c r="T33" s="4">
+        <f t="shared" si="10"/>
+        <v>146</v>
+      </c>
+      <c r="X33" s="14"/>
+      <c r="Z33" s="4">
+        <f t="shared" si="11"/>
+        <v>161</v>
+      </c>
+      <c r="AF33" s="4">
+        <f t="shared" si="12"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="13"/>
+        <v>117</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="9"/>
+        <v>132</v>
+      </c>
+      <c r="P34" s="13">
+        <v>2</v>
+      </c>
+      <c r="T34" s="4">
+        <f t="shared" si="10"/>
+        <v>147</v>
+      </c>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Z34" s="4">
+        <f t="shared" si="11"/>
+        <v>162</v>
+      </c>
+      <c r="AB34" s="13">
+        <v>3</v>
+      </c>
+      <c r="AF34" s="4">
+        <f t="shared" si="12"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B35" s="4">
+        <f t="shared" si="7"/>
+        <v>103</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="13"/>
+        <v>118</v>
+      </c>
+      <c r="N35" s="4">
+        <f t="shared" si="9"/>
+        <v>133</v>
+      </c>
+      <c r="T35" s="4">
+        <f t="shared" si="10"/>
+        <v>148</v>
+      </c>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Z35" s="4">
+        <f t="shared" si="11"/>
+        <v>163</v>
+      </c>
+      <c r="AF35" s="4">
+        <f t="shared" si="12"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B36" s="4">
+        <f t="shared" si="7"/>
+        <v>104</v>
+      </c>
+      <c r="H36" s="4">
+        <f t="shared" si="13"/>
+        <v>119</v>
+      </c>
+      <c r="I36" s="14"/>
+      <c r="N36" s="4">
+        <f t="shared" si="9"/>
+        <v>134</v>
+      </c>
+      <c r="T36" s="4">
+        <f t="shared" si="10"/>
+        <v>149</v>
+      </c>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Z36" s="4">
+        <f t="shared" si="11"/>
+        <v>164</v>
+      </c>
+      <c r="AF36" s="4">
+        <f t="shared" si="12"/>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="33:33" x14ac:dyDescent="0.25">
@@ -2077,10 +2657,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C642237E-D03A-45EC-B312-ECA8F260C28A}">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,22 +2669,25 @@
     <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F1">
-        <f>SUM(G21:G68) - SUM(G6:G17)</f>
-        <v>15376.836816908315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUM(G21:G200) - SUM(G6:G17)</f>
+        <v>15136.604205922085</v>
+      </c>
+      <c r="H1">
+        <v>18330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2115,7 +2698,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2123,7 +2706,7 @@
         <v>0.99916280000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2143,7 +2726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2166,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2189,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2212,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2224,18 +2807,18 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>3491.2167574365317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5486.1977616859785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -2258,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -2281,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -2304,7 +2887,7 @@
         <v>5472.4301600596791</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -2327,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -2336,21 +2919,21 @@
         <v>0.99332199248127073</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3476.6269736844474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -2359,21 +2942,21 @@
         <v>0.99249038330916539</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>5458.6971082004093</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -2382,18 +2965,18 @@
         <v>0.99165947036025903</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3470.8081462609066</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2472,28 +3055,28 @@
       </c>
       <c r="D21">
         <f>AVERAGE(I21:K21)</f>
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="G21">
         <f>E21*D21*B21</f>
-        <v>960</v>
+        <v>240</v>
       </c>
       <c r="I21">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J21">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K21">
-        <v>800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" ref="A22:A68" si="3">_xlfn.FLOOR.MATH(C22/$B$1)</f>
+        <f t="shared" ref="A22:A85" si="3">_xlfn.FLOOR.MATH(C22/$B$1)</f>
         <v>0</v>
       </c>
       <c r="B22">
@@ -2504,24 +3087,24 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:D68" si="4">AVERAGE(I22:K22)</f>
-        <v>480</v>
+        <f t="shared" ref="D22:D85" si="4">AVERAGE(I22:K22)</f>
+        <v>120</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G22:G68" si="5">E22*D22*B22</f>
-        <v>960</v>
+        <f t="shared" ref="G22:G85" si="5">E22*D22*B22</f>
+        <v>240</v>
       </c>
       <c r="I22">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J22">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K22">
-        <v>800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2530,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:B24" si="6">B22</f>
+        <f t="shared" ref="B23:B35" si="6">B22</f>
         <v>1</v>
       </c>
       <c r="C23">
@@ -2538,23 +3121,23 @@
       </c>
       <c r="D23">
         <f t="shared" si="4"/>
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="G23">
         <f t="shared" si="5"/>
-        <v>960</v>
+        <v>240</v>
       </c>
       <c r="I23">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J23">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K23">
-        <v>800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2571,1475 +3154,5831 @@
       </c>
       <c r="D24">
         <f t="shared" si="4"/>
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="G24">
         <f t="shared" si="5"/>
-        <v>960</v>
+        <v>240</v>
       </c>
       <c r="I24">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J24">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K24">
-        <v>800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25">
-        <f>B21*$B$3</f>
-        <v>0.99916280000000002</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
       <c r="D25">
         <f t="shared" si="4"/>
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="G25">
         <f t="shared" si="5"/>
-        <v>959.19628799999998</v>
+        <v>240</v>
       </c>
       <c r="I25">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J25">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K25">
-        <v>800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26:B68" si="7">B22*$B$3</f>
-        <v>0.99916280000000002</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
       <c r="D26">
         <f t="shared" si="4"/>
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="G26">
         <f t="shared" si="5"/>
-        <v>959.19628799999998</v>
+        <v>240</v>
       </c>
       <c r="I26">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J26">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K26">
-        <v>800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27">
-        <f t="shared" si="7"/>
-        <v>0.99916280000000002</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>6</v>
       </c>
       <c r="D27">
         <f t="shared" si="4"/>
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="G27">
         <f t="shared" si="5"/>
-        <v>959.19628799999998</v>
+        <v>240</v>
       </c>
       <c r="I27">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J27">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K27">
-        <v>800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28">
-        <f t="shared" si="7"/>
-        <v>0.99916280000000002</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>7</v>
       </c>
       <c r="D28">
         <f t="shared" si="4"/>
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="G28">
         <f t="shared" si="5"/>
-        <v>959.19628799999998</v>
+        <v>240</v>
       </c>
       <c r="I28">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J28">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K28">
-        <v>800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B29">
-        <f t="shared" si="7"/>
-        <v>0.99832630090384</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>8</v>
       </c>
       <c r="D29">
         <f t="shared" si="4"/>
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>958.39324886768645</v>
+        <v>240</v>
       </c>
       <c r="I29">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J29">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K29">
-        <v>800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B30">
-        <f t="shared" si="7"/>
-        <v>0.99832630090384</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>9</v>
       </c>
       <c r="D30">
         <f t="shared" si="4"/>
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>958.39324886768645</v>
+        <v>240</v>
       </c>
       <c r="I30">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J30">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K30">
-        <v>800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B31">
-        <f t="shared" si="7"/>
-        <v>0.99832630090384</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>10</v>
       </c>
       <c r="D31">
         <f t="shared" si="4"/>
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>958.39324886768645</v>
+        <v>240</v>
       </c>
       <c r="I31">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J31">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B32">
-        <f t="shared" si="7"/>
-        <v>0.99832630090384</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>11</v>
       </c>
       <c r="D32">
         <f t="shared" si="4"/>
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>958.39324886768645</v>
+        <v>240</v>
       </c>
       <c r="I32">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J32">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K32">
-        <v>800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B33">
-        <f t="shared" si="7"/>
-        <v>0.99749050212472334</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>12</v>
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>478.79544101986721</v>
+        <v>240</v>
       </c>
       <c r="I33">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J33">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K33">
-        <v>800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B34">
-        <f t="shared" si="7"/>
-        <v>0.99749050212472334</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>13</v>
       </c>
       <c r="D34">
         <f t="shared" si="4"/>
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="G34">
         <f t="shared" si="5"/>
-        <v>957.59088203973442</v>
+        <v>240</v>
       </c>
       <c r="I34">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J34">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K34">
-        <v>800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B35">
-        <f t="shared" si="7"/>
-        <v>0.99749050212472334</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>14</v>
       </c>
       <c r="D35">
         <f t="shared" si="4"/>
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="E35">
         <v>2</v>
       </c>
       <c r="G35">
         <f t="shared" si="5"/>
-        <v>957.59088203973442</v>
+        <v>240</v>
       </c>
       <c r="I35">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J35">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K35">
-        <v>800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B36">
-        <f t="shared" si="7"/>
-        <v>0.99749050212472334</v>
+        <f>B21*$B$3</f>
+        <v>0.99916280000000002</v>
       </c>
       <c r="C36">
         <v>15</v>
       </c>
       <c r="D36">
         <f t="shared" si="4"/>
-        <v>266.66666666666669</v>
+        <v>120</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36">
         <f t="shared" si="5"/>
-        <v>265.99746723325956</v>
+        <v>239.799072</v>
       </c>
       <c r="I36">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J36">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K36">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B37">
-        <f t="shared" si="7"/>
-        <v>0.99665540307634459</v>
+        <f>B22*$B$3</f>
+        <v>0.99916280000000002</v>
       </c>
       <c r="C37">
         <v>16</v>
       </c>
       <c r="D37">
         <f t="shared" si="4"/>
-        <v>266.66666666666669</v>
+        <v>120</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
       <c r="G37">
         <f t="shared" si="5"/>
-        <v>531.54954830738382</v>
+        <v>239.799072</v>
       </c>
       <c r="I37">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J37">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K37">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B38">
-        <f t="shared" si="7"/>
-        <v>0.99665540307634459</v>
+        <f t="shared" ref="B38:B101" si="7">B23*$B$3</f>
+        <v>0.99916280000000002</v>
       </c>
       <c r="C38">
         <v>17</v>
       </c>
       <c r="D38">
         <f t="shared" si="4"/>
-        <v>266.66666666666669</v>
+        <v>120</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="G38">
         <f t="shared" si="5"/>
-        <v>531.54954830738382</v>
+        <v>239.799072</v>
       </c>
       <c r="I38">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J38">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K38">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B39">
         <f t="shared" si="7"/>
-        <v>0.99665540307634459</v>
+        <v>0.99916280000000002</v>
       </c>
       <c r="C39">
         <v>18</v>
       </c>
       <c r="D39">
         <f t="shared" si="4"/>
-        <v>266.66666666666669</v>
+        <v>120</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="G39">
         <f t="shared" si="5"/>
-        <v>531.54954830738382</v>
+        <v>239.799072</v>
       </c>
       <c r="I39">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J39">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B40">
         <f t="shared" si="7"/>
-        <v>0.99665540307634459</v>
+        <v>0.99916280000000002</v>
       </c>
       <c r="C40">
         <v>19</v>
       </c>
       <c r="D40">
         <f t="shared" si="4"/>
-        <v>266.66666666666669</v>
+        <v>120</v>
       </c>
       <c r="E40">
         <v>2</v>
       </c>
       <c r="G40">
         <f t="shared" si="5"/>
-        <v>531.54954830738382</v>
+        <v>239.799072</v>
       </c>
       <c r="I40">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J40">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B41">
         <f t="shared" si="7"/>
-        <v>0.99582100317288913</v>
+        <v>0.99916280000000002</v>
       </c>
       <c r="C41">
         <v>20</v>
       </c>
       <c r="D41">
         <f t="shared" si="4"/>
-        <v>266.66666666666669</v>
+        <v>120</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41">
         <f t="shared" si="5"/>
-        <v>265.55226751277047</v>
+        <v>239.799072</v>
       </c>
       <c r="I41">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J41">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B42">
         <f t="shared" si="7"/>
-        <v>0.99582100317288913</v>
+        <v>0.99916280000000002</v>
       </c>
       <c r="C42">
         <v>21</v>
       </c>
       <c r="D42">
         <f t="shared" si="4"/>
-        <v>266.66666666666669</v>
+        <v>120</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42">
         <f t="shared" si="5"/>
-        <v>265.55226751277047</v>
+        <v>239.799072</v>
       </c>
       <c r="I42">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J42">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B43">
         <f t="shared" si="7"/>
-        <v>0.99582100317288913</v>
+        <v>0.99916280000000002</v>
       </c>
       <c r="C43">
         <v>22</v>
       </c>
       <c r="D43">
         <f t="shared" si="4"/>
-        <v>266.66666666666669</v>
+        <v>120</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43">
         <f t="shared" si="5"/>
-        <v>265.55226751277047</v>
+        <v>239.799072</v>
       </c>
       <c r="I43">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J43">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K43">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B44">
         <f t="shared" si="7"/>
-        <v>0.99582100317288913</v>
+        <v>0.99916280000000002</v>
       </c>
       <c r="C44">
         <v>23</v>
       </c>
       <c r="D44">
         <f t="shared" si="4"/>
-        <v>266.66666666666669</v>
+        <v>120</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>239.799072</v>
       </c>
       <c r="I44">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J44">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B45">
         <f t="shared" si="7"/>
-        <v>0.99498730182903283</v>
+        <v>0.99916280000000002</v>
       </c>
       <c r="C45">
         <v>24</v>
       </c>
       <c r="D45">
         <f t="shared" si="4"/>
-        <v>266.66666666666669</v>
+        <v>120</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>239.799072</v>
       </c>
       <c r="I45">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J45">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K45">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B46">
         <f t="shared" si="7"/>
-        <v>0.99498730182903283</v>
+        <v>0.99916280000000002</v>
       </c>
       <c r="C46">
         <v>25</v>
       </c>
       <c r="D46">
         <f t="shared" si="4"/>
-        <v>266.66666666666669</v>
+        <v>120</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G46">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>239.799072</v>
       </c>
       <c r="I46">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J46">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K46">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B47">
         <f t="shared" si="7"/>
-        <v>0.99498730182903283</v>
+        <v>0.99916280000000002</v>
       </c>
       <c r="C47">
         <v>26</v>
       </c>
       <c r="D47">
         <f t="shared" si="4"/>
-        <v>266.66666666666669</v>
+        <v>120</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47">
         <f t="shared" si="5"/>
-        <v>265.32994715440879</v>
+        <v>239.799072</v>
       </c>
       <c r="I47">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J47">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K47">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B48">
         <f t="shared" si="7"/>
-        <v>0.99498730182903283</v>
+        <v>0.99916280000000002</v>
       </c>
       <c r="C48">
         <v>27</v>
       </c>
       <c r="D48">
         <f t="shared" si="4"/>
-        <v>266.66666666666669</v>
+        <v>120</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48">
         <f t="shared" si="5"/>
-        <v>265.32994715440879</v>
+        <v>239.799072</v>
       </c>
       <c r="I48">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J48">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K48">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B49">
         <f t="shared" si="7"/>
-        <v>0.99415429845994163</v>
+        <v>0.99916280000000002</v>
       </c>
       <c r="C49">
         <v>28</v>
       </c>
       <c r="D49">
         <f t="shared" si="4"/>
-        <v>266.66666666666669</v>
+        <v>120</v>
       </c>
       <c r="E49">
         <v>2</v>
       </c>
       <c r="G49">
         <f t="shared" si="5"/>
-        <v>530.21562584530227</v>
+        <v>239.799072</v>
       </c>
       <c r="I49">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J49">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K49">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B50">
         <f t="shared" si="7"/>
-        <v>0.99415429845994163</v>
+        <v>0.99916280000000002</v>
       </c>
       <c r="C50">
         <v>29</v>
       </c>
       <c r="D50">
         <f t="shared" si="4"/>
-        <v>266.66666666666669</v>
+        <v>120</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
       <c r="G50">
         <f t="shared" si="5"/>
-        <v>530.21562584530227</v>
+        <v>239.799072</v>
       </c>
       <c r="I50">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J50">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K50">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B51">
         <f t="shared" si="7"/>
-        <v>0.99415429845994163</v>
+        <v>0.99832630090384</v>
       </c>
       <c r="C51">
         <v>30</v>
       </c>
       <c r="D51">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="E51">
         <v>2</v>
       </c>
       <c r="G51">
         <f t="shared" si="5"/>
-        <v>795.32343876795335</v>
+        <v>239.59831221692161</v>
       </c>
       <c r="I51">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J51">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K51">
-        <v>560</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B52">
         <f t="shared" si="7"/>
-        <v>0.99415429845994163</v>
+        <v>0.99832630090384</v>
       </c>
       <c r="C52">
         <v>31</v>
       </c>
       <c r="D52">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="E52">
         <v>2</v>
       </c>
       <c r="G52">
         <f t="shared" si="5"/>
-        <v>795.32343876795335</v>
+        <v>239.59831221692161</v>
       </c>
       <c r="I52">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J52">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K52">
-        <v>560</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B53">
         <f t="shared" si="7"/>
-        <v>0.99332199248127095</v>
+        <v>0.99832630090384</v>
       </c>
       <c r="C53">
         <v>32</v>
       </c>
       <c r="D53">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="E53">
         <v>2</v>
       </c>
       <c r="G53">
         <f t="shared" si="5"/>
-        <v>794.65759398501677</v>
+        <v>239.59831221692161</v>
       </c>
       <c r="I53">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J53">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K53">
-        <v>560</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B54">
         <f t="shared" si="7"/>
-        <v>0.99332199248127095</v>
+        <v>0.99832630090384</v>
       </c>
       <c r="C54">
         <v>33</v>
       </c>
       <c r="D54">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="E54">
         <v>2</v>
       </c>
       <c r="G54">
         <f t="shared" si="5"/>
-        <v>794.65759398501677</v>
+        <v>239.59831221692161</v>
       </c>
       <c r="I54">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J54">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K54">
-        <v>560</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B55">
         <f t="shared" si="7"/>
-        <v>0.99332199248127095</v>
+        <v>0.99832630090384</v>
       </c>
       <c r="C55">
         <v>34</v>
       </c>
       <c r="D55">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="E55">
         <v>2</v>
       </c>
       <c r="G55">
         <f t="shared" si="5"/>
-        <v>794.65759398501677</v>
+        <v>239.59831221692161</v>
       </c>
       <c r="I55">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J55">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K55">
-        <v>560</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B56">
         <f t="shared" si="7"/>
-        <v>0.99332199248127095</v>
+        <v>0.99832630090384</v>
       </c>
       <c r="C56">
         <v>35</v>
       </c>
       <c r="D56">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56">
         <f t="shared" si="5"/>
-        <v>397.32879699250839</v>
+        <v>239.59831221692161</v>
       </c>
       <c r="I56">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J56">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K56">
-        <v>560</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B57">
         <f t="shared" si="7"/>
-        <v>0.99249038330916561</v>
+        <v>0.99832630090384</v>
       </c>
       <c r="C57">
         <v>36</v>
       </c>
       <c r="D57">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57">
         <f t="shared" si="5"/>
-        <v>396.99615332366625</v>
+        <v>239.59831221692161</v>
       </c>
       <c r="I57">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J57">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K57">
-        <v>560</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B58">
         <f t="shared" si="7"/>
-        <v>0.99249038330916561</v>
+        <v>0.99832630090384</v>
       </c>
       <c r="C58">
         <v>37</v>
       </c>
       <c r="D58">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58">
         <f t="shared" si="5"/>
-        <v>396.99615332366625</v>
+        <v>239.59831221692161</v>
       </c>
       <c r="I58">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J58">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K58">
-        <v>560</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B59">
         <f t="shared" si="7"/>
-        <v>0.99249038330916561</v>
+        <v>0.99832630090384</v>
       </c>
       <c r="C59">
         <v>38</v>
       </c>
       <c r="D59">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59">
         <f t="shared" si="5"/>
-        <v>396.99615332366625</v>
+        <v>239.59831221692161</v>
       </c>
       <c r="I59">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J59">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K59">
-        <v>560</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B60">
         <f t="shared" si="7"/>
-        <v>0.99249038330916561</v>
+        <v>0.99832630090384</v>
       </c>
       <c r="C60">
         <v>39</v>
       </c>
       <c r="D60">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60">
         <f t="shared" si="5"/>
-        <v>396.99615332366625</v>
+        <v>239.59831221692161</v>
       </c>
       <c r="I60">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J60">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K60">
-        <v>560</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B61">
         <f t="shared" si="7"/>
-        <v>0.99165947036025914</v>
+        <v>0.99832630090384</v>
       </c>
       <c r="C61">
         <v>40</v>
       </c>
       <c r="D61">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="E61">
         <v>2</v>
       </c>
       <c r="G61">
         <f t="shared" si="5"/>
-        <v>793.3275762882073</v>
+        <v>239.59831221692161</v>
       </c>
       <c r="I61">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J61">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K61">
-        <v>560</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B62">
         <f t="shared" si="7"/>
-        <v>0.99165947036025914</v>
+        <v>0.99832630090384</v>
       </c>
       <c r="C62">
         <v>41</v>
       </c>
       <c r="D62">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="E62">
         <v>2</v>
       </c>
       <c r="G62">
         <f t="shared" si="5"/>
-        <v>793.3275762882073</v>
+        <v>239.59831221692161</v>
       </c>
       <c r="I62">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J62">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K62">
-        <v>560</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B63">
         <f t="shared" si="7"/>
-        <v>0.99165947036025914</v>
+        <v>0.99832630090384</v>
       </c>
       <c r="C63">
         <v>42</v>
       </c>
       <c r="D63">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="E63">
         <v>2</v>
       </c>
       <c r="G63">
         <f t="shared" si="5"/>
-        <v>793.3275762882073</v>
+        <v>239.59831221692161</v>
       </c>
       <c r="I63">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J63">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K63">
-        <v>560</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B64">
         <f t="shared" si="7"/>
-        <v>0.99165947036025914</v>
+        <v>0.99832630090384</v>
       </c>
       <c r="C64">
         <v>43</v>
       </c>
       <c r="D64">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="E64">
         <v>2</v>
       </c>
       <c r="G64">
         <f t="shared" si="5"/>
-        <v>793.3275762882073</v>
+        <v>239.59831221692161</v>
       </c>
       <c r="I64">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J64">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K64">
-        <v>560</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B65">
         <f t="shared" si="7"/>
-        <v>0.99082925305167358</v>
+        <v>0.99832630090384</v>
       </c>
       <c r="C65">
         <v>44</v>
       </c>
       <c r="D65">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="E65">
         <v>2</v>
       </c>
       <c r="G65">
         <f t="shared" si="5"/>
-        <v>792.6634024413388</v>
+        <v>239.59831221692161</v>
       </c>
       <c r="I65">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J65">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K65">
-        <v>560</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B66">
         <f t="shared" si="7"/>
-        <v>0.99082925305167358</v>
+        <v>0.99749050212472334</v>
       </c>
       <c r="C66">
         <v>45</v>
       </c>
       <c r="D66">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="E66">
         <v>2</v>
       </c>
       <c r="G66">
         <f t="shared" si="5"/>
-        <v>792.6634024413388</v>
+        <v>239.39772050993361</v>
       </c>
       <c r="I66">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J66">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K66">
-        <v>560</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B67">
         <f t="shared" si="7"/>
-        <v>0.99082925305167358</v>
+        <v>0.99749050212472334</v>
       </c>
       <c r="C67">
         <v>46</v>
       </c>
       <c r="D67">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67">
         <f t="shared" si="5"/>
-        <v>396.3317012206694</v>
+        <v>239.39772050993361</v>
       </c>
       <c r="I67">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J67">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K67">
-        <v>560</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B68">
         <f t="shared" si="7"/>
-        <v>0.99082925305167358</v>
+        <v>0.99749050212472334</v>
       </c>
       <c r="C68">
         <v>47</v>
       </c>
       <c r="D68">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G68">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>239.39772050993361</v>
       </c>
       <c r="I68">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J68">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="K68">
-        <v>560</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="7"/>
+        <v>0.99749050212472334</v>
+      </c>
+      <c r="C69">
+        <v>48</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="5"/>
+        <v>119.6988602549668</v>
+      </c>
+      <c r="I69">
+        <v>100</v>
+      </c>
+      <c r="J69">
+        <v>60</v>
+      </c>
+      <c r="K69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="7"/>
+        <v>0.99749050212472334</v>
+      </c>
+      <c r="C70">
+        <v>49</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="5"/>
+        <v>119.6988602549668</v>
+      </c>
+      <c r="I70">
+        <v>100</v>
+      </c>
+      <c r="J70">
+        <v>60</v>
+      </c>
+      <c r="K70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="7"/>
+        <v>0.99749050212472334</v>
+      </c>
+      <c r="C71">
+        <v>50</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="5"/>
+        <v>239.39772050993361</v>
+      </c>
+      <c r="I71">
+        <v>100</v>
+      </c>
+      <c r="J71">
+        <v>60</v>
+      </c>
+      <c r="K71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="7"/>
+        <v>0.99749050212472334</v>
+      </c>
+      <c r="C72">
+        <v>51</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="5"/>
+        <v>239.39772050993361</v>
+      </c>
+      <c r="I72">
+        <v>100</v>
+      </c>
+      <c r="J72">
+        <v>60</v>
+      </c>
+      <c r="K72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="7"/>
+        <v>0.99749050212472334</v>
+      </c>
+      <c r="C73">
+        <v>52</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="5"/>
+        <v>239.39772050993361</v>
+      </c>
+      <c r="I73">
+        <v>100</v>
+      </c>
+      <c r="J73">
+        <v>60</v>
+      </c>
+      <c r="K73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="7"/>
+        <v>0.99749050212472334</v>
+      </c>
+      <c r="C74">
+        <v>53</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="5"/>
+        <v>239.39772050993361</v>
+      </c>
+      <c r="I74">
+        <v>100</v>
+      </c>
+      <c r="J74">
+        <v>60</v>
+      </c>
+      <c r="K74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="7"/>
+        <v>0.99749050212472334</v>
+      </c>
+      <c r="C75">
+        <v>54</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="5"/>
+        <v>239.39772050993361</v>
+      </c>
+      <c r="I75">
+        <v>100</v>
+      </c>
+      <c r="J75">
+        <v>60</v>
+      </c>
+      <c r="K75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="7"/>
+        <v>0.99749050212472334</v>
+      </c>
+      <c r="C76">
+        <v>55</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="5"/>
+        <v>239.39772050993361</v>
+      </c>
+      <c r="I76">
+        <v>100</v>
+      </c>
+      <c r="J76">
+        <v>60</v>
+      </c>
+      <c r="K76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="7"/>
+        <v>0.99749050212472334</v>
+      </c>
+      <c r="C77">
+        <v>56</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="5"/>
+        <v>239.39772050993361</v>
+      </c>
+      <c r="I77">
+        <v>100</v>
+      </c>
+      <c r="J77">
+        <v>60</v>
+      </c>
+      <c r="K77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="7"/>
+        <v>0.99749050212472334</v>
+      </c>
+      <c r="C78">
+        <v>57</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="5"/>
+        <v>239.39772050993361</v>
+      </c>
+      <c r="I78">
+        <v>100</v>
+      </c>
+      <c r="J78">
+        <v>60</v>
+      </c>
+      <c r="K78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="7"/>
+        <v>0.99749050212472334</v>
+      </c>
+      <c r="C79">
+        <v>58</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="5"/>
+        <v>119.6988602549668</v>
+      </c>
+      <c r="I79">
+        <v>100</v>
+      </c>
+      <c r="J79">
+        <v>60</v>
+      </c>
+      <c r="K79">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="7"/>
+        <v>0.99749050212472334</v>
+      </c>
+      <c r="C80">
+        <v>59</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="5"/>
+        <v>119.6988602549668</v>
+      </c>
+      <c r="I80">
+        <v>100</v>
+      </c>
+      <c r="J80">
+        <v>60</v>
+      </c>
+      <c r="K80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="7"/>
+        <v>0.99665540307634459</v>
+      </c>
+      <c r="C81">
+        <v>60</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="4"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="5"/>
+        <v>132.88738707684595</v>
+      </c>
+      <c r="I81">
+        <v>100</v>
+      </c>
+      <c r="J81">
+        <v>60</v>
+      </c>
+      <c r="K81">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="7"/>
+        <v>0.99665540307634459</v>
+      </c>
+      <c r="C82">
+        <v>61</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="4"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="5"/>
+        <v>132.88738707684595</v>
+      </c>
+      <c r="I82">
+        <v>100</v>
+      </c>
+      <c r="J82">
+        <v>60</v>
+      </c>
+      <c r="K82">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="7"/>
+        <v>0.99665540307634459</v>
+      </c>
+      <c r="C83">
+        <v>62</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="4"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="5"/>
+        <v>132.88738707684595</v>
+      </c>
+      <c r="I83">
+        <v>100</v>
+      </c>
+      <c r="J83">
+        <v>60</v>
+      </c>
+      <c r="K83">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="7"/>
+        <v>0.99665540307634459</v>
+      </c>
+      <c r="C84">
+        <v>63</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="4"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="5"/>
+        <v>132.88738707684595</v>
+      </c>
+      <c r="I84">
+        <v>100</v>
+      </c>
+      <c r="J84">
+        <v>60</v>
+      </c>
+      <c r="K84">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="7"/>
+        <v>0.99665540307634459</v>
+      </c>
+      <c r="C85">
+        <v>64</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="4"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="5"/>
+        <v>132.88738707684595</v>
+      </c>
+      <c r="I85">
+        <v>100</v>
+      </c>
+      <c r="J85">
+        <v>60</v>
+      </c>
+      <c r="K85">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" ref="A86:A149" si="8">_xlfn.FLOOR.MATH(C86/$B$1)</f>
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="7"/>
+        <v>0.99665540307634459</v>
+      </c>
+      <c r="C86">
+        <v>65</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ref="D86:D149" si="9">AVERAGE(I86:K86)</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <f t="shared" ref="G86:G149" si="10">E86*D86*B86</f>
+        <v>132.88738707684595</v>
+      </c>
+      <c r="I86">
+        <v>100</v>
+      </c>
+      <c r="J86">
+        <v>60</v>
+      </c>
+      <c r="K86">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="7"/>
+        <v>0.99665540307634459</v>
+      </c>
+      <c r="C87">
+        <v>66</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="10"/>
+        <v>132.88738707684595</v>
+      </c>
+      <c r="I87">
+        <v>100</v>
+      </c>
+      <c r="J87">
+        <v>60</v>
+      </c>
+      <c r="K87">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="7"/>
+        <v>0.99665540307634459</v>
+      </c>
+      <c r="C88">
+        <v>67</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="10"/>
+        <v>132.88738707684595</v>
+      </c>
+      <c r="I88">
+        <v>100</v>
+      </c>
+      <c r="J88">
+        <v>60</v>
+      </c>
+      <c r="K88">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="7"/>
+        <v>0.99665540307634459</v>
+      </c>
+      <c r="C89">
+        <v>68</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="10"/>
+        <v>132.88738707684595</v>
+      </c>
+      <c r="I89">
+        <v>100</v>
+      </c>
+      <c r="J89">
+        <v>60</v>
+      </c>
+      <c r="K89">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="7"/>
+        <v>0.99665540307634459</v>
+      </c>
+      <c r="C90">
+        <v>69</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="10"/>
+        <v>132.88738707684595</v>
+      </c>
+      <c r="I90">
+        <v>100</v>
+      </c>
+      <c r="J90">
+        <v>60</v>
+      </c>
+      <c r="K90">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="7"/>
+        <v>0.99665540307634459</v>
+      </c>
+      <c r="C91">
+        <v>70</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="10"/>
+        <v>132.88738707684595</v>
+      </c>
+      <c r="I91">
+        <v>100</v>
+      </c>
+      <c r="J91">
+        <v>60</v>
+      </c>
+      <c r="K91">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="7"/>
+        <v>0.99665540307634459</v>
+      </c>
+      <c r="C92">
+        <v>71</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="10"/>
+        <v>132.88738707684595</v>
+      </c>
+      <c r="I92">
+        <v>100</v>
+      </c>
+      <c r="J92">
+        <v>60</v>
+      </c>
+      <c r="K92">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="7"/>
+        <v>0.99665540307634459</v>
+      </c>
+      <c r="C93">
+        <v>72</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="10"/>
+        <v>132.88738707684595</v>
+      </c>
+      <c r="I93">
+        <v>100</v>
+      </c>
+      <c r="J93">
+        <v>60</v>
+      </c>
+      <c r="K93">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="7"/>
+        <v>0.99665540307634459</v>
+      </c>
+      <c r="C94">
+        <v>73</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="10"/>
+        <v>132.88738707684595</v>
+      </c>
+      <c r="I94">
+        <v>100</v>
+      </c>
+      <c r="J94">
+        <v>60</v>
+      </c>
+      <c r="K94">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="7"/>
+        <v>0.99665540307634459</v>
+      </c>
+      <c r="C95">
+        <v>74</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="10"/>
+        <v>132.88738707684595</v>
+      </c>
+      <c r="I95">
+        <v>100</v>
+      </c>
+      <c r="J95">
+        <v>60</v>
+      </c>
+      <c r="K95">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="7"/>
+        <v>0.99582100317288913</v>
+      </c>
+      <c r="C96">
+        <v>75</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="10"/>
+        <v>132.77613375638524</v>
+      </c>
+      <c r="I96">
+        <v>100</v>
+      </c>
+      <c r="J96">
+        <v>60</v>
+      </c>
+      <c r="K96">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="7"/>
+        <v>0.99582100317288913</v>
+      </c>
+      <c r="C97">
+        <v>76</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="10"/>
+        <v>132.77613375638524</v>
+      </c>
+      <c r="I97">
+        <v>100</v>
+      </c>
+      <c r="J97">
+        <v>60</v>
+      </c>
+      <c r="K97">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="7"/>
+        <v>0.99582100317288913</v>
+      </c>
+      <c r="C98">
+        <v>77</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="10"/>
+        <v>132.77613375638524</v>
+      </c>
+      <c r="I98">
+        <v>100</v>
+      </c>
+      <c r="J98">
+        <v>60</v>
+      </c>
+      <c r="K98">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="7"/>
+        <v>0.99582100317288913</v>
+      </c>
+      <c r="C99">
+        <v>78</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="10"/>
+        <v>132.77613375638524</v>
+      </c>
+      <c r="I99">
+        <v>100</v>
+      </c>
+      <c r="J99">
+        <v>60</v>
+      </c>
+      <c r="K99">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="7"/>
+        <v>0.99582100317288913</v>
+      </c>
+      <c r="C100">
+        <v>79</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="10"/>
+        <v>132.77613375638524</v>
+      </c>
+      <c r="I100">
+        <v>100</v>
+      </c>
+      <c r="J100">
+        <v>60</v>
+      </c>
+      <c r="K100">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="7"/>
+        <v>0.99582100317288913</v>
+      </c>
+      <c r="C101">
+        <v>80</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="10"/>
+        <v>132.77613375638524</v>
+      </c>
+      <c r="I101">
+        <v>100</v>
+      </c>
+      <c r="J101">
+        <v>60</v>
+      </c>
+      <c r="K101">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B102">
+        <f t="shared" ref="B102:B165" si="11">B87*$B$3</f>
+        <v>0.99582100317288913</v>
+      </c>
+      <c r="C102">
+        <v>81</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="10"/>
+        <v>132.77613375638524</v>
+      </c>
+      <c r="I102">
+        <v>100</v>
+      </c>
+      <c r="J102">
+        <v>60</v>
+      </c>
+      <c r="K102">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="11"/>
+        <v>0.99582100317288913</v>
+      </c>
+      <c r="C103">
+        <v>82</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="10"/>
+        <v>132.77613375638524</v>
+      </c>
+      <c r="I103">
+        <v>100</v>
+      </c>
+      <c r="J103">
+        <v>60</v>
+      </c>
+      <c r="K103">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="11"/>
+        <v>0.99582100317288913</v>
+      </c>
+      <c r="C104">
+        <v>83</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="10"/>
+        <v>132.77613375638524</v>
+      </c>
+      <c r="I104">
+        <v>100</v>
+      </c>
+      <c r="J104">
+        <v>60</v>
+      </c>
+      <c r="K104">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="11"/>
+        <v>0.99582100317288913</v>
+      </c>
+      <c r="C105">
+        <v>84</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="10"/>
+        <v>132.77613375638524</v>
+      </c>
+      <c r="I105">
+        <v>100</v>
+      </c>
+      <c r="J105">
+        <v>60</v>
+      </c>
+      <c r="K105">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="11"/>
+        <v>0.99582100317288913</v>
+      </c>
+      <c r="C106">
+        <v>85</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="10"/>
+        <v>132.77613375638524</v>
+      </c>
+      <c r="I106">
+        <v>100</v>
+      </c>
+      <c r="J106">
+        <v>60</v>
+      </c>
+      <c r="K106">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="11"/>
+        <v>0.99582100317288913</v>
+      </c>
+      <c r="C107">
+        <v>86</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="10"/>
+        <v>132.77613375638524</v>
+      </c>
+      <c r="I107">
+        <v>100</v>
+      </c>
+      <c r="J107">
+        <v>60</v>
+      </c>
+      <c r="K107">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="11"/>
+        <v>0.99582100317288913</v>
+      </c>
+      <c r="C108">
+        <v>87</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="10"/>
+        <v>132.77613375638524</v>
+      </c>
+      <c r="I108">
+        <v>100</v>
+      </c>
+      <c r="J108">
+        <v>60</v>
+      </c>
+      <c r="K108">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="11"/>
+        <v>0.99582100317288913</v>
+      </c>
+      <c r="C109">
+        <v>88</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="10"/>
+        <v>132.77613375638524</v>
+      </c>
+      <c r="I109">
+        <v>100</v>
+      </c>
+      <c r="J109">
+        <v>60</v>
+      </c>
+      <c r="K109">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="11"/>
+        <v>0.99582100317288913</v>
+      </c>
+      <c r="C110">
+        <v>89</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="10"/>
+        <v>132.77613375638524</v>
+      </c>
+      <c r="I110">
+        <v>100</v>
+      </c>
+      <c r="J110">
+        <v>60</v>
+      </c>
+      <c r="K110">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="11"/>
+        <v>0.99498730182903283</v>
+      </c>
+      <c r="C111">
+        <v>90</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="10"/>
+        <v>132.66497357720439</v>
+      </c>
+      <c r="I111">
+        <v>100</v>
+      </c>
+      <c r="J111">
+        <v>60</v>
+      </c>
+      <c r="K111">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="11"/>
+        <v>0.99498730182903283</v>
+      </c>
+      <c r="C112">
+        <v>91</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="10"/>
+        <v>132.66497357720439</v>
+      </c>
+      <c r="I112">
+        <v>100</v>
+      </c>
+      <c r="J112">
+        <v>60</v>
+      </c>
+      <c r="K112">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="11"/>
+        <v>0.99498730182903283</v>
+      </c>
+      <c r="C113">
+        <v>92</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="10"/>
+        <v>66.332486788602196</v>
+      </c>
+      <c r="I113">
+        <v>100</v>
+      </c>
+      <c r="J113">
+        <v>60</v>
+      </c>
+      <c r="K113">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="11"/>
+        <v>0.99498730182903283</v>
+      </c>
+      <c r="C114">
+        <v>93</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="10"/>
+        <v>66.332486788602196</v>
+      </c>
+      <c r="I114">
+        <v>100</v>
+      </c>
+      <c r="J114">
+        <v>60</v>
+      </c>
+      <c r="K114">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="11"/>
+        <v>0.99498730182903283</v>
+      </c>
+      <c r="C115">
+        <v>94</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="10"/>
+        <v>132.66497357720439</v>
+      </c>
+      <c r="I115">
+        <v>100</v>
+      </c>
+      <c r="J115">
+        <v>60</v>
+      </c>
+      <c r="K115">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="11"/>
+        <v>0.99498730182903283</v>
+      </c>
+      <c r="C116">
+        <v>95</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="10"/>
+        <v>66.332486788602196</v>
+      </c>
+      <c r="I116">
+        <v>100</v>
+      </c>
+      <c r="J116">
+        <v>60</v>
+      </c>
+      <c r="K116">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="11"/>
+        <v>0.99498730182903283</v>
+      </c>
+      <c r="C117">
+        <v>96</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="10"/>
+        <v>66.332486788602196</v>
+      </c>
+      <c r="I117">
+        <v>100</v>
+      </c>
+      <c r="J117">
+        <v>60</v>
+      </c>
+      <c r="K117">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="11"/>
+        <v>0.99498730182903283</v>
+      </c>
+      <c r="C118">
+        <v>97</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="10"/>
+        <v>132.66497357720439</v>
+      </c>
+      <c r="I118">
+        <v>100</v>
+      </c>
+      <c r="J118">
+        <v>60</v>
+      </c>
+      <c r="K118">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="11"/>
+        <v>0.99498730182903283</v>
+      </c>
+      <c r="C119">
+        <v>98</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="10"/>
+        <v>132.66497357720439</v>
+      </c>
+      <c r="I119">
+        <v>100</v>
+      </c>
+      <c r="J119">
+        <v>60</v>
+      </c>
+      <c r="K119">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="11"/>
+        <v>0.99498730182903283</v>
+      </c>
+      <c r="C120">
+        <v>99</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="10"/>
+        <v>132.66497357720439</v>
+      </c>
+      <c r="I120">
+        <v>100</v>
+      </c>
+      <c r="J120">
+        <v>60</v>
+      </c>
+      <c r="K120">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="11"/>
+        <v>0.99498730182903283</v>
+      </c>
+      <c r="C121">
+        <v>100</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="10"/>
+        <v>132.66497357720439</v>
+      </c>
+      <c r="I121">
+        <v>100</v>
+      </c>
+      <c r="J121">
+        <v>60</v>
+      </c>
+      <c r="K121">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="11"/>
+        <v>0.99498730182903283</v>
+      </c>
+      <c r="C122">
+        <v>101</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="10"/>
+        <v>132.66497357720439</v>
+      </c>
+      <c r="I122">
+        <v>100</v>
+      </c>
+      <c r="J122">
+        <v>60</v>
+      </c>
+      <c r="K122">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="11"/>
+        <v>0.99498730182903283</v>
+      </c>
+      <c r="C123">
+        <v>102</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="10"/>
+        <v>132.66497357720439</v>
+      </c>
+      <c r="I123">
+        <v>100</v>
+      </c>
+      <c r="J123">
+        <v>60</v>
+      </c>
+      <c r="K123">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="11"/>
+        <v>0.99498730182903283</v>
+      </c>
+      <c r="C124">
+        <v>103</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="10"/>
+        <v>132.66497357720439</v>
+      </c>
+      <c r="I124">
+        <v>100</v>
+      </c>
+      <c r="J124">
+        <v>60</v>
+      </c>
+      <c r="K124">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="11"/>
+        <v>0.99498730182903283</v>
+      </c>
+      <c r="C125">
+        <v>104</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="10"/>
+        <v>132.66497357720439</v>
+      </c>
+      <c r="I125">
+        <v>100</v>
+      </c>
+      <c r="J125">
+        <v>60</v>
+      </c>
+      <c r="K125">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="11"/>
+        <v>0.99415429845994163</v>
+      </c>
+      <c r="C126">
+        <v>105</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="10"/>
+        <v>132.55390646132557</v>
+      </c>
+      <c r="I126">
+        <v>100</v>
+      </c>
+      <c r="J126">
+        <v>60</v>
+      </c>
+      <c r="K126">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="11"/>
+        <v>0.99415429845994163</v>
+      </c>
+      <c r="C127">
+        <v>106</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="10"/>
+        <v>132.55390646132557</v>
+      </c>
+      <c r="I127">
+        <v>100</v>
+      </c>
+      <c r="J127">
+        <v>60</v>
+      </c>
+      <c r="K127">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="11"/>
+        <v>0.99415429845994163</v>
+      </c>
+      <c r="C128">
+        <v>107</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="10"/>
+        <v>132.55390646132557</v>
+      </c>
+      <c r="I128">
+        <v>100</v>
+      </c>
+      <c r="J128">
+        <v>60</v>
+      </c>
+      <c r="K128">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="11"/>
+        <v>0.99415429845994163</v>
+      </c>
+      <c r="C129">
+        <v>108</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="10"/>
+        <v>132.55390646132557</v>
+      </c>
+      <c r="I129">
+        <v>100</v>
+      </c>
+      <c r="J129">
+        <v>60</v>
+      </c>
+      <c r="K129">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="11"/>
+        <v>0.99415429845994163</v>
+      </c>
+      <c r="C130">
+        <v>109</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="10"/>
+        <v>132.55390646132557</v>
+      </c>
+      <c r="I130">
+        <v>100</v>
+      </c>
+      <c r="J130">
+        <v>60</v>
+      </c>
+      <c r="K130">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="11"/>
+        <v>0.99415429845994163</v>
+      </c>
+      <c r="C131">
+        <v>110</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="10"/>
+        <v>132.55390646132557</v>
+      </c>
+      <c r="I131">
+        <v>100</v>
+      </c>
+      <c r="J131">
+        <v>60</v>
+      </c>
+      <c r="K131">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="11"/>
+        <v>0.99415429845994163</v>
+      </c>
+      <c r="C132">
+        <v>111</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="10"/>
+        <v>132.55390646132557</v>
+      </c>
+      <c r="I132">
+        <v>100</v>
+      </c>
+      <c r="J132">
+        <v>60</v>
+      </c>
+      <c r="K132">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="11"/>
+        <v>0.99415429845994163</v>
+      </c>
+      <c r="C133">
+        <v>112</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="10"/>
+        <v>132.55390646132557</v>
+      </c>
+      <c r="I133">
+        <v>100</v>
+      </c>
+      <c r="J133">
+        <v>60</v>
+      </c>
+      <c r="K133">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="11"/>
+        <v>0.99415429845994163</v>
+      </c>
+      <c r="C134">
+        <v>113</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="10"/>
+        <v>132.55390646132557</v>
+      </c>
+      <c r="I134">
+        <v>100</v>
+      </c>
+      <c r="J134">
+        <v>60</v>
+      </c>
+      <c r="K134">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="11"/>
+        <v>0.99415429845994163</v>
+      </c>
+      <c r="C135">
+        <v>114</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="10"/>
+        <v>132.55390646132557</v>
+      </c>
+      <c r="I135">
+        <v>100</v>
+      </c>
+      <c r="J135">
+        <v>60</v>
+      </c>
+      <c r="K135">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="11"/>
+        <v>0.99415429845994163</v>
+      </c>
+      <c r="C136">
+        <v>115</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="10"/>
+        <v>132.55390646132557</v>
+      </c>
+      <c r="I136">
+        <v>100</v>
+      </c>
+      <c r="J136">
+        <v>60</v>
+      </c>
+      <c r="K136">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="11"/>
+        <v>0.99415429845994163</v>
+      </c>
+      <c r="C137">
+        <v>116</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="10"/>
+        <v>132.55390646132557</v>
+      </c>
+      <c r="I137">
+        <v>100</v>
+      </c>
+      <c r="J137">
+        <v>60</v>
+      </c>
+      <c r="K137">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="11"/>
+        <v>0.99415429845994163</v>
+      </c>
+      <c r="C138">
+        <v>117</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="10"/>
+        <v>132.55390646132557</v>
+      </c>
+      <c r="I138">
+        <v>100</v>
+      </c>
+      <c r="J138">
+        <v>60</v>
+      </c>
+      <c r="K138">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="11"/>
+        <v>0.99415429845994163</v>
+      </c>
+      <c r="C139">
+        <v>118</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="10"/>
+        <v>132.55390646132557</v>
+      </c>
+      <c r="I139">
+        <v>100</v>
+      </c>
+      <c r="J139">
+        <v>60</v>
+      </c>
+      <c r="K139">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="11"/>
+        <v>0.99415429845994163</v>
+      </c>
+      <c r="C140">
+        <v>119</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="10"/>
+        <v>66.276953230662784</v>
+      </c>
+      <c r="I140">
+        <v>100</v>
+      </c>
+      <c r="J140">
+        <v>60</v>
+      </c>
+      <c r="K140">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="11"/>
+        <v>0.99332199248127095</v>
+      </c>
+      <c r="C141">
+        <v>120</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="10"/>
+        <v>99.332199248127097</v>
+      </c>
+      <c r="I141">
+        <v>100</v>
+      </c>
+      <c r="J141">
+        <v>60</v>
+      </c>
+      <c r="K141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="11"/>
+        <v>0.99332199248127095</v>
+      </c>
+      <c r="C142">
+        <v>121</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="10"/>
+        <v>198.66439849625419</v>
+      </c>
+      <c r="I142">
+        <v>100</v>
+      </c>
+      <c r="J142">
+        <v>60</v>
+      </c>
+      <c r="K142">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="11"/>
+        <v>0.99332199248127095</v>
+      </c>
+      <c r="C143">
+        <v>122</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="10"/>
+        <v>198.66439849625419</v>
+      </c>
+      <c r="I143">
+        <v>100</v>
+      </c>
+      <c r="J143">
+        <v>60</v>
+      </c>
+      <c r="K143">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="11"/>
+        <v>0.99332199248127095</v>
+      </c>
+      <c r="C144">
+        <v>123</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="10"/>
+        <v>198.66439849625419</v>
+      </c>
+      <c r="I144">
+        <v>100</v>
+      </c>
+      <c r="J144">
+        <v>60</v>
+      </c>
+      <c r="K144">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="11"/>
+        <v>0.99332199248127095</v>
+      </c>
+      <c r="C145">
+        <v>124</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="10"/>
+        <v>198.66439849625419</v>
+      </c>
+      <c r="I145">
+        <v>100</v>
+      </c>
+      <c r="J145">
+        <v>60</v>
+      </c>
+      <c r="K145">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="11"/>
+        <v>0.99332199248127095</v>
+      </c>
+      <c r="C146">
+        <v>125</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="E146">
+        <v>2</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="10"/>
+        <v>198.66439849625419</v>
+      </c>
+      <c r="I146">
+        <v>100</v>
+      </c>
+      <c r="J146">
+        <v>60</v>
+      </c>
+      <c r="K146">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="11"/>
+        <v>0.99332199248127095</v>
+      </c>
+      <c r="C147">
+        <v>126</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="10"/>
+        <v>198.66439849625419</v>
+      </c>
+      <c r="I147">
+        <v>100</v>
+      </c>
+      <c r="J147">
+        <v>60</v>
+      </c>
+      <c r="K147">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="11"/>
+        <v>0.99332199248127095</v>
+      </c>
+      <c r="C148">
+        <v>127</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="10"/>
+        <v>198.66439849625419</v>
+      </c>
+      <c r="I148">
+        <v>100</v>
+      </c>
+      <c r="J148">
+        <v>60</v>
+      </c>
+      <c r="K148">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="11"/>
+        <v>0.99332199248127095</v>
+      </c>
+      <c r="C149">
+        <v>128</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="10"/>
+        <v>198.66439849625419</v>
+      </c>
+      <c r="I149">
+        <v>100</v>
+      </c>
+      <c r="J149">
+        <v>60</v>
+      </c>
+      <c r="K149">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f t="shared" ref="A150:A203" si="12">_xlfn.FLOOR.MATH(C150/$B$1)</f>
+        <v>8</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="11"/>
+        <v>0.99332199248127095</v>
+      </c>
+      <c r="C150">
+        <v>129</v>
+      </c>
+      <c r="D150">
+        <f t="shared" ref="D150:D200" si="13">AVERAGE(I150:K150)</f>
+        <v>100</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="G150">
+        <f t="shared" ref="G150:G200" si="14">E150*D150*B150</f>
+        <v>198.66439849625419</v>
+      </c>
+      <c r="I150">
+        <v>100</v>
+      </c>
+      <c r="J150">
+        <v>60</v>
+      </c>
+      <c r="K150">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="11"/>
+        <v>0.99332199248127095</v>
+      </c>
+      <c r="C151">
+        <v>130</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="14"/>
+        <v>198.66439849625419</v>
+      </c>
+      <c r="I151">
+        <v>100</v>
+      </c>
+      <c r="J151">
+        <v>60</v>
+      </c>
+      <c r="K151">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="11"/>
+        <v>0.99332199248127095</v>
+      </c>
+      <c r="C152">
+        <v>131</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="14"/>
+        <v>198.66439849625419</v>
+      </c>
+      <c r="I152">
+        <v>100</v>
+      </c>
+      <c r="J152">
+        <v>60</v>
+      </c>
+      <c r="K152">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="11"/>
+        <v>0.99332199248127095</v>
+      </c>
+      <c r="C153">
+        <v>132</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="14"/>
+        <v>99.332199248127097</v>
+      </c>
+      <c r="I153">
+        <v>100</v>
+      </c>
+      <c r="J153">
+        <v>60</v>
+      </c>
+      <c r="K153">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="11"/>
+        <v>0.99332199248127095</v>
+      </c>
+      <c r="C154">
+        <v>133</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="14"/>
+        <v>198.66439849625419</v>
+      </c>
+      <c r="I154">
+        <v>100</v>
+      </c>
+      <c r="J154">
+        <v>60</v>
+      </c>
+      <c r="K154">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="11"/>
+        <v>0.99332199248127095</v>
+      </c>
+      <c r="C155">
+        <v>134</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="14"/>
+        <v>198.66439849625419</v>
+      </c>
+      <c r="I155">
+        <v>100</v>
+      </c>
+      <c r="J155">
+        <v>60</v>
+      </c>
+      <c r="K155">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="11"/>
+        <v>0.99249038330916561</v>
+      </c>
+      <c r="C156">
+        <v>135</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="14"/>
+        <v>198.49807666183312</v>
+      </c>
+      <c r="I156">
+        <v>100</v>
+      </c>
+      <c r="J156">
+        <v>60</v>
+      </c>
+      <c r="K156">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="11"/>
+        <v>0.99249038330916561</v>
+      </c>
+      <c r="C157">
+        <v>136</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="14"/>
+        <v>198.49807666183312</v>
+      </c>
+      <c r="I157">
+        <v>100</v>
+      </c>
+      <c r="J157">
+        <v>60</v>
+      </c>
+      <c r="K157">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="11"/>
+        <v>0.99249038330916561</v>
+      </c>
+      <c r="C158">
+        <v>137</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="14"/>
+        <v>198.49807666183312</v>
+      </c>
+      <c r="I158">
+        <v>100</v>
+      </c>
+      <c r="J158">
+        <v>60</v>
+      </c>
+      <c r="K158">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="11"/>
+        <v>0.99249038330916561</v>
+      </c>
+      <c r="C159">
+        <v>138</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="14"/>
+        <v>198.49807666183312</v>
+      </c>
+      <c r="I159">
+        <v>100</v>
+      </c>
+      <c r="J159">
+        <v>60</v>
+      </c>
+      <c r="K159">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="11"/>
+        <v>0.99249038330916561</v>
+      </c>
+      <c r="C160">
+        <v>139</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="14"/>
+        <v>198.49807666183312</v>
+      </c>
+      <c r="I160">
+        <v>100</v>
+      </c>
+      <c r="J160">
+        <v>60</v>
+      </c>
+      <c r="K160">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="11"/>
+        <v>0.99249038330916561</v>
+      </c>
+      <c r="C161">
+        <v>140</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="14"/>
+        <v>198.49807666183312</v>
+      </c>
+      <c r="I161">
+        <v>100</v>
+      </c>
+      <c r="J161">
+        <v>60</v>
+      </c>
+      <c r="K161">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="11"/>
+        <v>0.99249038330916561</v>
+      </c>
+      <c r="C162">
+        <v>141</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E162">
+        <v>2</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="14"/>
+        <v>198.49807666183312</v>
+      </c>
+      <c r="I162">
+        <v>100</v>
+      </c>
+      <c r="J162">
+        <v>60</v>
+      </c>
+      <c r="K162">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="11"/>
+        <v>0.99249038330916561</v>
+      </c>
+      <c r="C163">
+        <v>142</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="14"/>
+        <v>198.49807666183312</v>
+      </c>
+      <c r="I163">
+        <v>100</v>
+      </c>
+      <c r="J163">
+        <v>60</v>
+      </c>
+      <c r="K163">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="11"/>
+        <v>0.99249038330916561</v>
+      </c>
+      <c r="C164">
+        <v>143</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="14"/>
+        <v>198.49807666183312</v>
+      </c>
+      <c r="I164">
+        <v>100</v>
+      </c>
+      <c r="J164">
+        <v>60</v>
+      </c>
+      <c r="K164">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="11"/>
+        <v>0.99249038330916561</v>
+      </c>
+      <c r="C165">
+        <v>144</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="14"/>
+        <v>198.49807666183312</v>
+      </c>
+      <c r="I165">
+        <v>100</v>
+      </c>
+      <c r="J165">
+        <v>60</v>
+      </c>
+      <c r="K165">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="B166">
+        <f t="shared" ref="B166:B200" si="15">B151*$B$3</f>
+        <v>0.99249038330916561</v>
+      </c>
+      <c r="C166">
+        <v>145</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="14"/>
+        <v>198.49807666183312</v>
+      </c>
+      <c r="I166">
+        <v>100</v>
+      </c>
+      <c r="J166">
+        <v>60</v>
+      </c>
+      <c r="K166">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="15"/>
+        <v>0.99249038330916561</v>
+      </c>
+      <c r="C167">
+        <v>146</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E167">
+        <v>2</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="14"/>
+        <v>198.49807666183312</v>
+      </c>
+      <c r="I167">
+        <v>100</v>
+      </c>
+      <c r="J167">
+        <v>60</v>
+      </c>
+      <c r="K167">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="15"/>
+        <v>0.99249038330916561</v>
+      </c>
+      <c r="C168">
+        <v>147</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E168">
+        <v>2</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="14"/>
+        <v>198.49807666183312</v>
+      </c>
+      <c r="I168">
+        <v>100</v>
+      </c>
+      <c r="J168">
+        <v>60</v>
+      </c>
+      <c r="K168">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="15"/>
+        <v>0.99249038330916561</v>
+      </c>
+      <c r="C169">
+        <v>148</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="14"/>
+        <v>198.49807666183312</v>
+      </c>
+      <c r="I169">
+        <v>100</v>
+      </c>
+      <c r="J169">
+        <v>60</v>
+      </c>
+      <c r="K169">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="15"/>
+        <v>0.99249038330916561</v>
+      </c>
+      <c r="C170">
+        <v>149</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="14"/>
+        <v>198.49807666183312</v>
+      </c>
+      <c r="I170">
+        <v>100</v>
+      </c>
+      <c r="J170">
+        <v>60</v>
+      </c>
+      <c r="K170">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="15"/>
+        <v>0.99165947036025914</v>
+      </c>
+      <c r="C171">
+        <v>150</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="14"/>
+        <v>99.165947036025912</v>
+      </c>
+      <c r="I171">
+        <v>100</v>
+      </c>
+      <c r="J171">
+        <v>60</v>
+      </c>
+      <c r="K171">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="15"/>
+        <v>0.99165947036025914</v>
+      </c>
+      <c r="C172">
+        <v>151</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E172">
+        <v>2</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="14"/>
+        <v>198.33189407205182</v>
+      </c>
+      <c r="I172">
+        <v>100</v>
+      </c>
+      <c r="J172">
+        <v>60</v>
+      </c>
+      <c r="K172">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="15"/>
+        <v>0.99165947036025914</v>
+      </c>
+      <c r="C173">
+        <v>152</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="14"/>
+        <v>198.33189407205182</v>
+      </c>
+      <c r="I173">
+        <v>100</v>
+      </c>
+      <c r="J173">
+        <v>60</v>
+      </c>
+      <c r="K173">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="15"/>
+        <v>0.99165947036025914</v>
+      </c>
+      <c r="C174">
+        <v>153</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="14"/>
+        <v>198.33189407205182</v>
+      </c>
+      <c r="I174">
+        <v>100</v>
+      </c>
+      <c r="J174">
+        <v>60</v>
+      </c>
+      <c r="K174">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="15"/>
+        <v>0.99165947036025914</v>
+      </c>
+      <c r="C175">
+        <v>154</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E175">
+        <v>2</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="14"/>
+        <v>198.33189407205182</v>
+      </c>
+      <c r="I175">
+        <v>100</v>
+      </c>
+      <c r="J175">
+        <v>60</v>
+      </c>
+      <c r="K175">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="15"/>
+        <v>0.99165947036025914</v>
+      </c>
+      <c r="C176">
+        <v>155</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="14"/>
+        <v>198.33189407205182</v>
+      </c>
+      <c r="I176">
+        <v>100</v>
+      </c>
+      <c r="J176">
+        <v>60</v>
+      </c>
+      <c r="K176">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="15"/>
+        <v>0.99165947036025914</v>
+      </c>
+      <c r="C177">
+        <v>156</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E177">
+        <v>2</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="14"/>
+        <v>198.33189407205182</v>
+      </c>
+      <c r="I177">
+        <v>100</v>
+      </c>
+      <c r="J177">
+        <v>60</v>
+      </c>
+      <c r="K177">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="15"/>
+        <v>0.99165947036025914</v>
+      </c>
+      <c r="C178">
+        <v>157</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E178">
+        <v>2</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="14"/>
+        <v>198.33189407205182</v>
+      </c>
+      <c r="I178">
+        <v>100</v>
+      </c>
+      <c r="J178">
+        <v>60</v>
+      </c>
+      <c r="K178">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="15"/>
+        <v>0.99165947036025914</v>
+      </c>
+      <c r="C179">
+        <v>158</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E179">
+        <v>2</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="14"/>
+        <v>198.33189407205182</v>
+      </c>
+      <c r="I179">
+        <v>100</v>
+      </c>
+      <c r="J179">
+        <v>60</v>
+      </c>
+      <c r="K179">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="15"/>
+        <v>0.99165947036025914</v>
+      </c>
+      <c r="C180">
+        <v>159</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E180">
+        <v>2</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="14"/>
+        <v>198.33189407205182</v>
+      </c>
+      <c r="I180">
+        <v>100</v>
+      </c>
+      <c r="J180">
+        <v>60</v>
+      </c>
+      <c r="K180">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="15"/>
+        <v>0.99165947036025914</v>
+      </c>
+      <c r="C181">
+        <v>160</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E181">
+        <v>2</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="14"/>
+        <v>198.33189407205182</v>
+      </c>
+      <c r="I181">
+        <v>100</v>
+      </c>
+      <c r="J181">
+        <v>60</v>
+      </c>
+      <c r="K181">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="15"/>
+        <v>0.99165947036025914</v>
+      </c>
+      <c r="C182">
+        <v>161</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E182">
+        <v>2</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="14"/>
+        <v>198.33189407205182</v>
+      </c>
+      <c r="I182">
+        <v>100</v>
+      </c>
+      <c r="J182">
+        <v>60</v>
+      </c>
+      <c r="K182">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="15"/>
+        <v>0.99165947036025914</v>
+      </c>
+      <c r="C183">
+        <v>162</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="14"/>
+        <v>99.165947036025912</v>
+      </c>
+      <c r="I183">
+        <v>100</v>
+      </c>
+      <c r="J183">
+        <v>60</v>
+      </c>
+      <c r="K183">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="15"/>
+        <v>0.99165947036025914</v>
+      </c>
+      <c r="C184">
+        <v>163</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="14"/>
+        <v>198.33189407205182</v>
+      </c>
+      <c r="I184">
+        <v>100</v>
+      </c>
+      <c r="J184">
+        <v>60</v>
+      </c>
+      <c r="K184">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="15"/>
+        <v>0.99165947036025914</v>
+      </c>
+      <c r="C185">
+        <v>164</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="14"/>
+        <v>198.33189407205182</v>
+      </c>
+      <c r="I185">
+        <v>100</v>
+      </c>
+      <c r="J185">
+        <v>60</v>
+      </c>
+      <c r="K185">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="15"/>
+        <v>0.99082925305167358</v>
+      </c>
+      <c r="C186">
+        <v>165</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E186">
+        <v>2</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="14"/>
+        <v>198.1658506103347</v>
+      </c>
+      <c r="I186">
+        <v>100</v>
+      </c>
+      <c r="J186">
+        <v>60</v>
+      </c>
+      <c r="K186">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="15"/>
+        <v>0.99082925305167358</v>
+      </c>
+      <c r="C187">
+        <v>166</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="14"/>
+        <v>198.1658506103347</v>
+      </c>
+      <c r="I187">
+        <v>100</v>
+      </c>
+      <c r="J187">
+        <v>60</v>
+      </c>
+      <c r="K187">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="15"/>
+        <v>0.99082925305167358</v>
+      </c>
+      <c r="C188">
+        <v>167</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="14"/>
+        <v>198.1658506103347</v>
+      </c>
+      <c r="I188">
+        <v>100</v>
+      </c>
+      <c r="J188">
+        <v>60</v>
+      </c>
+      <c r="K188">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="15"/>
+        <v>0.99082925305167358</v>
+      </c>
+      <c r="C189">
+        <v>168</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="14"/>
+        <v>198.1658506103347</v>
+      </c>
+      <c r="I189">
+        <v>100</v>
+      </c>
+      <c r="J189">
+        <v>60</v>
+      </c>
+      <c r="K189">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="15"/>
+        <v>0.99082925305167358</v>
+      </c>
+      <c r="C190">
+        <v>169</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E190">
+        <v>2</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="14"/>
+        <v>198.1658506103347</v>
+      </c>
+      <c r="I190">
+        <v>100</v>
+      </c>
+      <c r="J190">
+        <v>60</v>
+      </c>
+      <c r="K190">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="15"/>
+        <v>0.99082925305167358</v>
+      </c>
+      <c r="C191">
+        <v>170</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E191">
+        <v>2</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="14"/>
+        <v>198.1658506103347</v>
+      </c>
+      <c r="I191">
+        <v>100</v>
+      </c>
+      <c r="J191">
+        <v>60</v>
+      </c>
+      <c r="K191">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="15"/>
+        <v>0.99082925305167358</v>
+      </c>
+      <c r="C192">
+        <v>171</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E192">
+        <v>2</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="14"/>
+        <v>198.1658506103347</v>
+      </c>
+      <c r="I192">
+        <v>100</v>
+      </c>
+      <c r="J192">
+        <v>60</v>
+      </c>
+      <c r="K192">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="15"/>
+        <v>0.99082925305167358</v>
+      </c>
+      <c r="C193">
+        <v>172</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="14"/>
+        <v>198.1658506103347</v>
+      </c>
+      <c r="I193">
+        <v>100</v>
+      </c>
+      <c r="J193">
+        <v>60</v>
+      </c>
+      <c r="K193">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="15"/>
+        <v>0.99082925305167358</v>
+      </c>
+      <c r="C194">
+        <v>173</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E194">
+        <v>2</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="14"/>
+        <v>198.1658506103347</v>
+      </c>
+      <c r="I194">
+        <v>100</v>
+      </c>
+      <c r="J194">
+        <v>60</v>
+      </c>
+      <c r="K194">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="B195">
+        <f t="shared" si="15"/>
+        <v>0.99082925305167358</v>
+      </c>
+      <c r="C195">
+        <v>174</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+      <c r="G195">
+        <f t="shared" si="14"/>
+        <v>198.1658506103347</v>
+      </c>
+      <c r="I195">
+        <v>100</v>
+      </c>
+      <c r="J195">
+        <v>60</v>
+      </c>
+      <c r="K195">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="15"/>
+        <v>0.99082925305167358</v>
+      </c>
+      <c r="C196">
+        <v>175</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E196">
+        <v>2</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="14"/>
+        <v>198.1658506103347</v>
+      </c>
+      <c r="I196">
+        <v>100</v>
+      </c>
+      <c r="J196">
+        <v>60</v>
+      </c>
+      <c r="K196">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="15"/>
+        <v>0.99082925305167358</v>
+      </c>
+      <c r="C197">
+        <v>176</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E197">
+        <v>2</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="14"/>
+        <v>198.1658506103347</v>
+      </c>
+      <c r="I197">
+        <v>100</v>
+      </c>
+      <c r="J197">
+        <v>60</v>
+      </c>
+      <c r="K197">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="15"/>
+        <v>0.99082925305167358</v>
+      </c>
+      <c r="C198">
+        <v>177</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="14"/>
+        <v>198.1658506103347</v>
+      </c>
+      <c r="I198">
+        <v>100</v>
+      </c>
+      <c r="J198">
+        <v>60</v>
+      </c>
+      <c r="K198">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="15"/>
+        <v>0.99082925305167358</v>
+      </c>
+      <c r="C199">
+        <v>178</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E199">
+        <v>2</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="14"/>
+        <v>198.1658506103347</v>
+      </c>
+      <c r="I199">
+        <v>100</v>
+      </c>
+      <c r="J199">
+        <v>60</v>
+      </c>
+      <c r="K199">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="15"/>
+        <v>0.99082925305167358</v>
+      </c>
+      <c r="C200">
+        <v>179</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E200">
+        <v>2</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="14"/>
+        <v>198.1658506103347</v>
+      </c>
+      <c r="I200">
+        <v>100</v>
+      </c>
+      <c r="J200">
+        <v>60</v>
+      </c>
+      <c r="K200">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
